--- a/covid19_drdfm/data/example-output/TN/df.xlsx
+++ b/covid19_drdfm/data/example-output/TN/df.xlsx
@@ -447,22 +447,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Employment1</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Employment2</t>
+          <t>Prod</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CPIU</t>
+          <t>UI</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PCEC</t>
+          <t>UR</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <v>40909</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1911968455201832</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.3937007874015748</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>40940</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8170711884503437</v>
+        <v>0.02854924428401395</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8258139200228848</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4804248097350872</v>
+        <v>0.1835406549411467</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9797476154831077</v>
+        <v>0.3858267716535433</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         <v>40969</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8135122768330407</v>
+        <v>0.02872520357169816</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8239012100173577</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4783596646895119</v>
+        <v>0.179734030972134</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9810227532710519</v>
+        <v>0.3779527559055118</v>
       </c>
     </row>
     <row r="5">
@@ -522,16 +522,16 @@
         <v>41000</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8018882440272991</v>
+        <v>0.02954246875444561</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8180161564203544</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4580164258916395</v>
+        <v>0.1623193605351225</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9802673354121212</v>
+        <v>0.3779527559055118</v>
       </c>
     </row>
     <row r="6">
@@ -539,16 +539,16 @@
         <v>41030</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8182644828456356</v>
+        <v>0.03099116960087926</v>
       </c>
       <c r="C6" t="n">
-        <v>0.819039970538338</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2823120937051792</v>
+        <v>0.1972878353670008</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9781946328218968</v>
+        <v>0.3779527559055118</v>
       </c>
     </row>
     <row r="7">
@@ -556,16 +556,16 @@
         <v>41061</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8137537407112719</v>
+        <v>0.03058834048767906</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8175601904981341</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3408982227867237</v>
+        <v>0.2305463500524456</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9782729285877159</v>
+        <v>0.3779527559055118</v>
       </c>
     </row>
     <row r="8">
@@ -573,16 +573,16 @@
         <v>41091</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8032999920192481</v>
+        <v>0.02643042570089953</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8205909698480336</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3934463727922193</v>
+        <v>0.2226489051423643</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9782685951174721</v>
+        <v>0.3779527559055118</v>
       </c>
     </row>
     <row r="9">
@@ -590,16 +590,16 @@
         <v>41122</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8069065484055066</v>
+        <v>0.02461675835497944</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8218528986159431</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6527359268372354</v>
+        <v>0.1668119284498488</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9766178983157136</v>
+        <v>0.3700787401574803</v>
       </c>
     </row>
     <row r="10">
@@ -607,16 +607,16 @@
         <v>41153</v>
       </c>
       <c r="B10" t="n">
-        <v>0.834591805387279</v>
+        <v>0.02481047510301536</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8220476470543482</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6040928049754837</v>
+        <v>0.1851362329503853</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9791251766773968</v>
+        <v>0.3622047244094488</v>
       </c>
     </row>
     <row r="11">
@@ -624,16 +624,16 @@
         <v>41183</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8210965500458856</v>
+        <v>0.0261491779774077</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8210990580937662</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D11" t="n">
-        <v>0.506728251696605</v>
+        <v>0.1989747617319777</v>
       </c>
       <c r="E11" t="n">
-        <v>0.98396198687112</v>
+        <v>0.3622047244094488</v>
       </c>
     </row>
     <row r="12">
@@ -641,16 +641,16 @@
         <v>41214</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8033629658599835</v>
+        <v>0.02835075656707753</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8212544385497698</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3006557725101743</v>
+        <v>0.1883066472246464</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9784922095456062</v>
+        <v>0.3622047244094488</v>
       </c>
     </row>
     <row r="13">
@@ -658,16 +658,16 @@
         <v>41244</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8068337204551878</v>
+        <v>0.02803312607219717</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8244209083586208</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D13" t="n">
-        <v>0.37413804795302</v>
+        <v>0.218477047428689</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9770136390526549</v>
+        <v>0.3700787401574803</v>
       </c>
     </row>
     <row r="14">
@@ -675,16 +675,16 @@
         <v>41275</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8055543580226956</v>
+        <v>0.02875545947521176</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8223316824338748</v>
+        <v>0.2241072720861805</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4730736920152049</v>
+        <v>0.2590310706701614</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9824906505822639</v>
+        <v>0.3779527559055118</v>
       </c>
     </row>
     <row r="15">
@@ -692,16 +692,16 @@
         <v>41306</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8095017709632395</v>
+        <v>0.02768655049485424</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8259306364023364</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6349860070635606</v>
+        <v>0.179227855032823</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9789649499577149</v>
+        <v>0.3779527559055118</v>
       </c>
     </row>
     <row r="16">
@@ -709,16 +709,16 @@
         <v>41334</v>
       </c>
       <c r="B16" t="n">
-        <v>0.805262264353838</v>
+        <v>0.03067738571399201</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8204826442824038</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2471689513070562</v>
+        <v>0.182764378392424</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9778175006322838</v>
+        <v>0.3779527559055118</v>
       </c>
     </row>
     <row r="17">
@@ -726,16 +726,16 @@
         <v>41365</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8185903306715626</v>
+        <v>0.02544738396567391</v>
       </c>
       <c r="C17" t="n">
-        <v>0.822175410606488</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2813645162752761</v>
+        <v>0.1671048491279995</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9772029075462043</v>
+        <v>0.3779527559055118</v>
       </c>
     </row>
     <row r="18">
@@ -743,16 +743,16 @@
         <v>41395</v>
       </c>
       <c r="B18" t="n">
-        <v>0.815943793632123</v>
+        <v>0.02457426708871729</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8232958481094075</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3993518297214528</v>
+        <v>0.2054302374684594</v>
       </c>
       <c r="E18" t="n">
-        <v>0.978462438089242</v>
+        <v>0.3700787401574803</v>
       </c>
     </row>
     <row r="19">
@@ -760,16 +760,16 @@
         <v>41426</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8112013334931283</v>
+        <v>0.02366092943760481</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8217901061473404</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4918638127890506</v>
+        <v>0.2251961044049816</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9807746156791444</v>
+        <v>0.3700787401574803</v>
       </c>
     </row>
     <row r="20">
@@ -777,16 +777,16 @@
         <v>41456</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8165747062094404</v>
+        <v>0.02754999267120356</v>
       </c>
       <c r="C20" t="n">
-        <v>0.819524705107271</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4719810427311055</v>
+        <v>0.2172786079441921</v>
       </c>
       <c r="E20" t="n">
-        <v>0.979262308224759</v>
+        <v>0.3622047244094488</v>
       </c>
     </row>
     <row r="21">
@@ -794,16 +794,16 @@
         <v>41487</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8091941800468382</v>
+        <v>0.02736506913445757</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8244296392645107</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4921920362000497</v>
+        <v>0.1581137257820528</v>
       </c>
       <c r="E21" t="n">
-        <v>0.978809824789761</v>
+        <v>0.3543307086614174</v>
       </c>
     </row>
     <row r="22">
@@ -811,16 +811,16 @@
         <v>41518</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8102815037840168</v>
+        <v>0.02805175429263147</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8220025398786427</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3976005690238599</v>
+        <v>0.1744040402799575</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9786423571171835</v>
+        <v>0.3464566929133858</v>
       </c>
     </row>
     <row r="23">
@@ -828,16 +828,16 @@
         <v>41548</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7748893508307949</v>
+        <v>0.02742776659091263</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8234365294311478</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4050553748719518</v>
+        <v>0.1889895765898147</v>
       </c>
       <c r="E23" t="n">
-        <v>0.982760952384311</v>
+        <v>0.3307086614173229</v>
       </c>
     </row>
     <row r="24">
@@ -845,16 +845,16 @@
         <v>41579</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8412095355145293</v>
+        <v>0.02749908627701827</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8256241022260118</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4666731454969064</v>
+        <v>0.1988497764457491</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9812503954983279</v>
+        <v>0.3228346456692913</v>
       </c>
     </row>
     <row r="25">
@@ -862,16 +862,16 @@
         <v>41609</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8177730833014433</v>
+        <v>0.02723158727942904</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8167674345972542</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D25" t="n">
-        <v>0.504271433281398</v>
+        <v>0.2270205481109467</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9796268144426162</v>
+        <v>0.3070866141732284</v>
       </c>
     </row>
     <row r="26">
@@ -879,16 +879,16 @@
         <v>41640</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8203859482666936</v>
+        <v>0.02554234051433074</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8219631015294253</v>
+        <v>0.1941804451611424</v>
       </c>
       <c r="D26" t="n">
-        <v>0.493934346505972</v>
+        <v>0.21158434543635</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9777682868082346</v>
+        <v>0.2913385826771654</v>
       </c>
     </row>
     <row r="27">
@@ -896,16 +896,16 @@
         <v>41671</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8063658967333401</v>
+        <v>0.02633731528484516</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8207960185887884</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4316850960443767</v>
+        <v>0.2153180551774241</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9765583916561276</v>
+        <v>0.2834645669291338</v>
       </c>
     </row>
     <row r="28">
@@ -913,16 +913,16 @@
         <v>41699</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8254627173521412</v>
+        <v>0.02547962148614218</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8257300281421081</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4759716818008413</v>
+        <v>0.1729890304604476</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9818597384704605</v>
+        <v>0.2834645669291338</v>
       </c>
     </row>
     <row r="29">
@@ -930,16 +930,16 @@
         <v>41730</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8076266774238325</v>
+        <v>0.02831150894654254</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8270190966267184</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D29" t="n">
-        <v>0.467607911577312</v>
+        <v>0.1686358421397594</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9818450146574353</v>
+        <v>0.2755905511811024</v>
       </c>
     </row>
     <row r="30">
@@ -947,16 +947,16 @@
         <v>41760</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8126222115907127</v>
+        <v>0.02842648201133629</v>
       </c>
       <c r="C30" t="n">
-        <v>0.822667647186039</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4694354679379368</v>
+        <v>0.1968067852822536</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9813103476548442</v>
+        <v>0.2755905511811024</v>
       </c>
     </row>
     <row r="31">
@@ -964,16 +964,16 @@
         <v>41791</v>
       </c>
       <c r="B31" t="n">
-        <v>0.822080809866217</v>
+        <v>0.02877031981690803</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8277647645364593</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4420601940130754</v>
+        <v>0.2362511181534099</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9787811040867067</v>
+        <v>0.2755905511811024</v>
       </c>
     </row>
     <row r="32">
@@ -981,16 +981,16 @@
         <v>41821</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8123850160291054</v>
+        <v>0.02804690025615383</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8242174934096156</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4328522352647602</v>
+        <v>0.2219316876741235</v>
       </c>
       <c r="E32" t="n">
-        <v>0.981568512407801</v>
+        <v>0.2677165354330708</v>
       </c>
     </row>
     <row r="33">
@@ -998,16 +998,16 @@
         <v>41852</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8116286777528561</v>
+        <v>0.02902257091214969</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8217938869930206</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3723022077765162</v>
+        <v>0.1609041493079177</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9755787392253349</v>
+        <v>0.2677165354330708</v>
       </c>
     </row>
     <row r="34">
@@ -1015,16 +1015,16 @@
         <v>41883</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8158018120719297</v>
+        <v>0.02878185291148553</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8266302034985644</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3832166305801797</v>
+        <v>0.1815423143329379</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9791237022486354</v>
+        <v>0.2598425196850394</v>
       </c>
     </row>
     <row r="35">
@@ -1032,16 +1032,16 @@
         <v>41913</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8300547056264846</v>
+        <v>0.02828282291299345</v>
       </c>
       <c r="C35" t="n">
-        <v>0.824127956244755</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3705152434098531</v>
+        <v>0.1832107057909775</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9777252114392785</v>
+        <v>0.2519685039370079</v>
       </c>
     </row>
     <row r="36">
@@ -1049,16 +1049,16 @@
         <v>41944</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8061260573769912</v>
+        <v>0.02858873907942005</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8257594276344505</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2910385964014466</v>
+        <v>0.1957331019895111</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9784373590744389</v>
+        <v>0.2440944881889763</v>
       </c>
     </row>
     <row r="37">
@@ -1066,16 +1066,16 @@
         <v>41974</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8144364776464362</v>
+        <v>0.02904846625264026</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8254627742564683</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2342588880723614</v>
+        <v>0.2181532394896852</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9778768331199639</v>
+        <v>0.2362204724409449</v>
       </c>
     </row>
     <row r="38">
@@ -1083,16 +1083,16 @@
         <v>42005</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8257177919739254</v>
+        <v>0.03330285485476522</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8222752866023222</v>
+        <v>0.7295204522692547</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07870096975326518</v>
+        <v>0.2601411304845623</v>
       </c>
       <c r="E38" t="n">
-        <v>0.973189625613409</v>
+        <v>0.2283464566929134</v>
       </c>
     </row>
     <row r="39">
@@ -1100,16 +1100,16 @@
         <v>42036</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8034061642763356</v>
+        <v>0.02947179349367488</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8250360465027927</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4991270461619542</v>
+        <v>0.174284048754317</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9781517738182761</v>
+        <v>0.2283464566929134</v>
       </c>
     </row>
     <row r="40">
@@ -1117,16 +1117,16 @@
         <v>42064</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8098794065368862</v>
+        <v>0.0292796517303658</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8183126748240903</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5066174053952723</v>
+        <v>0.2157953246432206</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9803666848320294</v>
+        <v>0.2204724409448819</v>
       </c>
     </row>
     <row r="41">
@@ -1134,16 +1134,16 @@
         <v>42095</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8204703357769915</v>
+        <v>0.03003849705168015</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8254374346256902</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4289422565245661</v>
+        <v>0.1363917610335028</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9809898533911975</v>
+        <v>0.2125984251968504</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         <v>42125</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8177257676594207</v>
+        <v>0.02902768447575245</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8277463401846614</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5349905266530876</v>
+        <v>0.1968838085882076</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9791221375105186</v>
+        <v>0.2047244094488189</v>
       </c>
     </row>
     <row r="43">
@@ -1168,16 +1168,16 @@
         <v>42156</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8069081625681082</v>
+        <v>0.0292720250597524</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8206217231591978</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5101022712614719</v>
+        <v>0.2402924044672868</v>
       </c>
       <c r="E43" t="n">
-        <v>0.978997543988299</v>
+        <v>0.1968503937007874</v>
       </c>
     </row>
     <row r="44">
@@ -1185,16 +1185,16 @@
         <v>42186</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8074361484750139</v>
+        <v>0.02823774592737393</v>
       </c>
       <c r="C44" t="n">
-        <v>0.825997886786185</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4545412938591608</v>
+        <v>0.2272012726404679</v>
       </c>
       <c r="E44" t="n">
-        <v>0.977651602238532</v>
+        <v>0.1811023622047244</v>
       </c>
     </row>
     <row r="45">
@@ -1202,16 +1202,16 @@
         <v>42217</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8192830710681206</v>
+        <v>0.02872023417810403</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8200613956704663</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3796449961608567</v>
+        <v>0.1587740312618161</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9770182518838439</v>
+        <v>0.1732283464566929</v>
       </c>
     </row>
     <row r="46">
@@ -1219,16 +1219,16 @@
         <v>42248</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7944628639571398</v>
+        <v>0.02961339368294928</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8198242076397693</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2738033829246919</v>
+        <v>0.1727559557091469</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9793377865484874</v>
+        <v>0.1653543307086614</v>
       </c>
     </row>
     <row r="47">
@@ -1236,16 +1236,16 @@
         <v>42278</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8217058068666531</v>
+        <v>0.02713172778757088</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8269545291609484</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4264502145385787</v>
+        <v>0.1938784377361853</v>
       </c>
       <c r="E47" t="n">
-        <v>0.974613594179923</v>
+        <v>0.1496062992125984</v>
       </c>
     </row>
     <row r="48">
@@ -1253,16 +1253,16 @@
         <v>42309</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8145543568902583</v>
+        <v>0.02667313969715654</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8232721524409696</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4361074937639563</v>
+        <v>0.2009515020601017</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9783873368083413</v>
+        <v>0.1417322834645669</v>
       </c>
     </row>
     <row r="49">
@@ -1270,16 +1270,16 @@
         <v>42339</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8301987447499016</v>
+        <v>0.02753466635413057</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8251024926703656</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3291286649421136</v>
+        <v>0.2191613325260596</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9767338669535904</v>
+        <v>0.1338582677165355</v>
       </c>
     </row>
     <row r="50">
@@ -1287,16 +1287,16 @@
         <v>42370</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8252302269764712</v>
+        <v>0.02702789372153784</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8190219459600729</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3582333302100829</v>
+        <v>0.256120248767995</v>
       </c>
       <c r="E50" t="n">
-        <v>0.98167363084452</v>
+        <v>0.1259842519685039</v>
       </c>
     </row>
     <row r="51">
@@ -1304,16 +1304,16 @@
         <v>42401</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8168785545332913</v>
+        <v>0.02771267244567886</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8227369194373043</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D51" t="n">
-        <v>0.317139331932879</v>
+        <v>0.2071904983722029</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9804857309116678</v>
+        <v>0.1181102362204725</v>
       </c>
     </row>
     <row r="52">
@@ -1321,16 +1321,16 @@
         <v>42430</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8166172624762037</v>
+        <v>0.02593383123921913</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8244083425910558</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D52" t="n">
-        <v>0.527342817213182</v>
+        <v>0.1687402502240181</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9799677242166804</v>
+        <v>0.1181102362204725</v>
       </c>
     </row>
     <row r="53">
@@ -1338,16 +1338,16 @@
         <v>42461</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8019526135529373</v>
+        <v>0.02567435354078935</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8218700422722833</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5600276253743403</v>
+        <v>0.1536761584201907</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9843664993593824</v>
+        <v>0.1102362204724409</v>
       </c>
     </row>
     <row r="54">
@@ -1355,16 +1355,16 @@
         <v>42491</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8089540979698909</v>
+        <v>0.02677260078116139</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8163254740842698</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4911291353516724</v>
+        <v>0.1499514615872476</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9803337721967778</v>
+        <v>0.1181102362204725</v>
       </c>
     </row>
     <row r="55">
@@ -1372,16 +1372,16 @@
         <v>42522</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8100965821959163</v>
+        <v>0.02651471898567088</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8241843065082501</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5104932049111612</v>
+        <v>0.2534207300399438</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9790415223734227</v>
+        <v>0.1181102362204725</v>
       </c>
     </row>
     <row r="56">
@@ -1389,16 +1389,16 @@
         <v>42552</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8183967831948311</v>
+        <v>0.02818566323002386</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8284285715748178</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3560972505717873</v>
+        <v>0.223061165628514</v>
       </c>
       <c r="E56" t="n">
-        <v>0.981015281890797</v>
+        <v>0.1259842519685039</v>
       </c>
     </row>
     <row r="57">
@@ -1406,16 +1406,16 @@
         <v>42583</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8147146482922014</v>
+        <v>0.02752162507371374</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8202700264204013</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4669182200412889</v>
+        <v>0.1609500969387897</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9817396552186772</v>
+        <v>0.1259842519685039</v>
       </c>
     </row>
     <row r="58">
@@ -1423,16 +1423,16 @@
         <v>42614</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8063220843276583</v>
+        <v>0.02737047853750412</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8258780750537105</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5033182562553414</v>
+        <v>0.1691666716894486</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9787856550618544</v>
+        <v>0.1338582677165355</v>
       </c>
     </row>
     <row r="59">
@@ -1440,16 +1440,16 @@
         <v>42644</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8080478076572463</v>
+        <v>0.02811837691177569</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8186995853766205</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4901319569909405</v>
+        <v>0.2012505357401732</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9801327453041018</v>
+        <v>0.1338582677165355</v>
       </c>
     </row>
     <row r="60">
@@ -1457,16 +1457,16 @@
         <v>42675</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8124965697135286</v>
+        <v>0.02920810972428605</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8191507907084582</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4353786391004341</v>
+        <v>0.1982556151343319</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9760322058243911</v>
+        <v>0.1259842519685039</v>
       </c>
     </row>
     <row r="61">
@@ -1474,16 +1474,16 @@
         <v>42705</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8139368519997429</v>
+        <v>0.02831976229100934</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8228900852335511</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4986856164755484</v>
+        <v>0.2324426704450532</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9794266720231996</v>
+        <v>0.1181102362204725</v>
       </c>
     </row>
     <row r="62">
@@ -1491,16 +1491,16 @@
         <v>42736</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8067712217436585</v>
+        <v>0.02607601078930318</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8233304665654089</v>
+        <v>0.5699024206519272</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5700337409100718</v>
+        <v>0.2550755185216139</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9846549301094776</v>
+        <v>0.1102362204724409</v>
       </c>
     </row>
     <row r="63">
@@ -1508,16 +1508,16 @@
         <v>42767</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8182238647215494</v>
+        <v>0.02739073880378355</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8223746599484877</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D63" t="n">
-        <v>0.454856946818932</v>
+        <v>0.1950288308482777</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9820560951350176</v>
+        <v>0.09448818897637801</v>
       </c>
     </row>
     <row r="64">
@@ -1525,16 +1525,16 @@
         <v>42795</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8270024494154147</v>
+        <v>0.02864773408298383</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8195031242404242</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3578150554331625</v>
+        <v>0.1658941576586538</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9721032874061285</v>
+        <v>0.07874015748031499</v>
       </c>
     </row>
     <row r="65">
@@ -1542,16 +1542,16 @@
         <v>42826</v>
       </c>
       <c r="B65" t="n">
-        <v>0.813441790037817</v>
+        <v>0.025996439128715</v>
       </c>
       <c r="C65" t="n">
-        <v>0.82201841942333</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4379823293781138</v>
+        <v>0.1752307616859588</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9838459099350136</v>
+        <v>0.05511811023622049</v>
       </c>
     </row>
     <row r="66">
@@ -1559,16 +1559,16 @@
         <v>42856</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8005818281819526</v>
+        <v>0.02749779647951455</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8227593368173521</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3433451879440547</v>
+        <v>0.2227936385142192</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9778158293211698</v>
+        <v>0.03937007874015752</v>
       </c>
     </row>
     <row r="67">
@@ -1576,16 +1576,16 @@
         <v>42887</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8154578610815599</v>
+        <v>0.02674525915507946</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8220724558148131</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D67" t="n">
-        <v>0.410549347079741</v>
+        <v>0.2469117609692457</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9800304991106373</v>
+        <v>0.03149606299212598</v>
       </c>
     </row>
     <row r="68">
@@ -1593,16 +1593,16 @@
         <v>42917</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8155122669478176</v>
+        <v>0.02812288256362342</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8215006893539329</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3952852113377378</v>
+        <v>0.2049997156904114</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9765079631200255</v>
+        <v>0.0236220472440945</v>
       </c>
     </row>
     <row r="69">
@@ -1610,16 +1610,16 @@
         <v>42948</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8046915430680994</v>
+        <v>0.02683538196737278</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8196592654238672</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5609150233935125</v>
+        <v>0.1917396694696659</v>
       </c>
       <c r="E69" t="n">
-        <v>0.979102434513735</v>
+        <v>0.01574803149606296</v>
       </c>
     </row>
     <row r="70">
@@ -1627,16 +1627,16 @@
         <v>42979</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8335959615893236</v>
+        <v>0.02599506884124383</v>
       </c>
       <c r="C70" t="n">
-        <v>0.818047234278343</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6199503001817661</v>
+        <v>0.1640007661351126</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9794011733698422</v>
+        <v>0.01574803149606296</v>
       </c>
     </row>
     <row r="71">
@@ -1644,16 +1644,16 @@
         <v>43009</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7839068529739605</v>
+        <v>0.02893583800414008</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8201370254127243</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4163665091399184</v>
+        <v>0.2075397935757529</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9848340411545677</v>
+        <v>0.01574803149606296</v>
       </c>
     </row>
     <row r="72">
@@ -1661,16 +1661,16 @@
         <v>43040</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8136231473531693</v>
+        <v>0.02880304880068098</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8231901576691838</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5054531287823583</v>
+        <v>0.1852827037781786</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9771776535582584</v>
+        <v>0.01574803149606296</v>
       </c>
     </row>
     <row r="73">
@@ -1678,16 +1678,16 @@
         <v>43070</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8103141008001655</v>
+        <v>0.02890895504219941</v>
       </c>
       <c r="C73" t="n">
-        <v>0.819973832527095</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4790655403947179</v>
+        <v>0.2452465151429263</v>
       </c>
       <c r="E73" t="n">
-        <v>0.980097022167201</v>
+        <v>0.0236220472440945</v>
       </c>
     </row>
     <row r="74">
@@ -1695,16 +1695,16 @@
         <v>43101</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8246466423312068</v>
+        <v>0.02845973776127096</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8201546828915486</v>
+        <v>0.2859847681014323</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5579617292651852</v>
+        <v>0.2433971305546622</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9868247112645042</v>
+        <v>0.0236220472440945</v>
       </c>
     </row>
     <row r="75">
@@ -1712,16 +1712,16 @@
         <v>43132</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8330659605477557</v>
+        <v>0.02910636298747111</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8290277501110732</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5115782435314746</v>
+        <v>0.2024125115686182</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9827496788666857</v>
+        <v>0.0236220472440945</v>
       </c>
     </row>
     <row r="76">
@@ -1729,16 +1729,16 @@
         <v>43160</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8075171382937057</v>
+        <v>0.029703485673092</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8228779466578857</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4066752155894716</v>
+        <v>0.1654547844680679</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9834844979235169</v>
+        <v>0.0236220472440945</v>
       </c>
     </row>
     <row r="77">
@@ -1746,16 +1746,16 @@
         <v>43191</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8102497836714794</v>
+        <v>0.02679107759123162</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8199781543527314</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4864555798421895</v>
+        <v>0.1658168587706158</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9810957775417388</v>
+        <v>0.0236220472440945</v>
       </c>
     </row>
     <row r="78">
@@ -1763,16 +1763,16 @@
         <v>43221</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8183984649936918</v>
+        <v>0.02682228386772922</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8267750524003048</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4990037387758953</v>
+        <v>0.1994077213122239</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9817591353187322</v>
+        <v>0.0236220472440945</v>
       </c>
     </row>
     <row r="79">
@@ -1780,16 +1780,16 @@
         <v>43252</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8106440688255686</v>
+        <v>0.02727282733072304</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8223965221927245</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D79" t="n">
-        <v>0.443536424040789</v>
+        <v>0.257479663505597</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9784106657816277</v>
+        <v>0.0236220472440945</v>
       </c>
     </row>
     <row r="80">
@@ -1797,16 +1797,16 @@
         <v>43282</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8198417357191273</v>
+        <v>0.02787310091544873</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8166722053316008</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4183183667114636</v>
+        <v>0.2126023341495938</v>
       </c>
       <c r="E80" t="n">
-        <v>0.979491595978044</v>
+        <v>0.0236220472440945</v>
       </c>
     </row>
     <row r="81">
@@ -1814,16 +1814,16 @@
         <v>43313</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7853610245878195</v>
+        <v>0.02794980444112046</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8238186390224658</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4596972479140294</v>
+        <v>0.1389538566569482</v>
       </c>
       <c r="E81" t="n">
-        <v>0.975033970154923</v>
+        <v>0.0236220472440945</v>
       </c>
     </row>
     <row r="82">
@@ -1831,16 +1831,16 @@
         <v>43344</v>
       </c>
       <c r="B82" t="n">
-        <v>0.824129043682934</v>
+        <v>0.02710041459169044</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8178823542293278</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4715287686595205</v>
+        <v>0.1720963143031921</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9826209712153378</v>
+        <v>0.0236220472440945</v>
       </c>
     </row>
     <row r="83">
@@ -1848,16 +1848,16 @@
         <v>43374</v>
       </c>
       <c r="B83" t="n">
-        <v>0.819552886792289</v>
+        <v>0.02546064418754345</v>
       </c>
       <c r="C83" t="n">
-        <v>0.820674477890516</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4961603152117828</v>
+        <v>0.2043531551623571</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9796210093737875</v>
+        <v>0.0236220472440945</v>
       </c>
     </row>
     <row r="84">
@@ -1865,16 +1865,16 @@
         <v>43405</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8179852778074733</v>
+        <v>0.02624606199818762</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8181339159172965</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3415997683456339</v>
+        <v>0.1853150198752688</v>
       </c>
       <c r="E84" t="n">
-        <v>0.98166126228281</v>
+        <v>0.0236220472440945</v>
       </c>
     </row>
     <row r="85">
@@ -1882,16 +1882,16 @@
         <v>43435</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8101511910185669</v>
+        <v>0.02637397550152502</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8213242929372483</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3600564217250121</v>
+        <v>0.2401681228022043</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9806439707852279</v>
+        <v>0.0236220472440945</v>
       </c>
     </row>
     <row r="86">
@@ -1899,16 +1899,16 @@
         <v>43466</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7973139801202804</v>
+        <v>0.02926544138962555</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8259309936709726</v>
+        <v>0.5971182389592178</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3647174717258458</v>
+        <v>0.2513851901919283</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9786664338987189</v>
+        <v>0.0236220472440945</v>
       </c>
     </row>
     <row r="87">
@@ -1916,16 +1916,16 @@
         <v>43497</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8196116871088801</v>
+        <v>0.02823456347946843</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8138010898794865</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5038792710841919</v>
+        <v>0.1897951078077775</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9767325971937034</v>
+        <v>0.01574803149606296</v>
       </c>
     </row>
     <row r="88">
@@ -1933,16 +1933,16 @@
         <v>43525</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8018329244093183</v>
+        <v>0.02751303719236915</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8229487460305345</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5913563343395413</v>
+        <v>0.1797486789656645</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9793252182555847</v>
+        <v>0.01574803149606296</v>
       </c>
     </row>
     <row r="89">
@@ -1950,16 +1950,16 @@
         <v>43556</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8045367245601444</v>
+        <v>0.02662730600818763</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8234836547045727</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5446092017417534</v>
+        <v>0.1542243204635999</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9851240471169656</v>
+        <v>0.01574803149606296</v>
       </c>
     </row>
     <row r="90">
@@ -1967,16 +1967,16 @@
         <v>43586</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8113212842232385</v>
+        <v>0.02806324174431279</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8170516540991243</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4097728513891348</v>
+        <v>0.2173566230935674</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9785662060674547</v>
+        <v>0.007874015748031482</v>
       </c>
     </row>
     <row r="91">
@@ -1984,16 +1984,16 @@
         <v>43617</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8186221843914154</v>
+        <v>0.02803903907704384</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8206962770596742</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D91" t="n">
-        <v>0.38649153885636</v>
+        <v>0.2589120982707515</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9823941640804321</v>
+        <v>0.007874015748031482</v>
       </c>
     </row>
     <row r="92">
@@ -2001,16 +2001,16 @@
         <v>43647</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8189620174086807</v>
+        <v>0.02926259854695918</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8175942660774596</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4792752537025191</v>
+        <v>0.2190456069916763</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9798030836781131</v>
+        <v>0.007874015748031482</v>
       </c>
     </row>
     <row r="93">
@@ -2018,16 +2018,16 @@
         <v>43678</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8154828077055877</v>
+        <v>0.02990501450038143</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8230507446757434</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4312301472581591</v>
+        <v>0.1438922725406699</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9781783786194277</v>
+        <v>0.007874015748031482</v>
       </c>
     </row>
     <row r="94">
@@ -2035,16 +2035,16 @@
         <v>43709</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8241791552854203</v>
+        <v>0.0296775091627617</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8221298771470258</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4565441355295847</v>
+        <v>0.1885941833185335</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9765585280189282</v>
+        <v>0.01574803149606296</v>
       </c>
     </row>
     <row r="95">
@@ -2052,16 +2052,16 @@
         <v>43739</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8126319742663987</v>
+        <v>0.02705734084360831</v>
       </c>
       <c r="C95" t="n">
-        <v>0.819289810779421</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5099701165816628</v>
+        <v>0.2360503195251261</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9797858088696763</v>
+        <v>0.01574803149606296</v>
       </c>
     </row>
     <row r="96">
@@ -2069,16 +2069,16 @@
         <v>43770</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8124937237162303</v>
+        <v>0.02798530908400765</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8224031023543661</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4682875810744797</v>
+        <v>0.1474400824726577</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9750503690185857</v>
+        <v>0.0236220472440945</v>
       </c>
     </row>
     <row r="97">
@@ -2086,16 +2086,16 @@
         <v>43800</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8132794396938479</v>
+        <v>0.02676834922077109</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8183015343154202</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4666626050633214</v>
+        <v>0.2272328341587369</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9831072632591373</v>
+        <v>0.03149606299212598</v>
       </c>
     </row>
     <row r="98">
@@ -2103,16 +2103,16 @@
         <v>43831</v>
       </c>
       <c r="B98" t="n">
-        <v>0.7973372499006984</v>
+        <v>0.02806602907373088</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8266883716369168</v>
+        <v>0.3136853183737133</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4562957516250217</v>
+        <v>0.2575082412477647</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9826493603113391</v>
+        <v>0.03149606299212598</v>
       </c>
     </row>
     <row r="99">
@@ -2120,16 +2120,16 @@
         <v>43862</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8137453876417202</v>
+        <v>0.02850144294321712</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8244621293926442</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D99" t="n">
-        <v>0.439059555797408</v>
+        <v>0.1959337397787274</v>
       </c>
       <c r="E99" t="n">
-        <v>0.98124669381788</v>
+        <v>0.03149606299212598</v>
       </c>
     </row>
     <row r="100">
@@ -2137,16 +2137,16 @@
         <v>43891</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6969692592429803</v>
+        <v>0.03051935417390086</v>
       </c>
       <c r="C100" t="n">
-        <v>0.762894256021043</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2262743642876197</v>
+        <v>0.178748635956985</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9717266243966615</v>
+        <v>0.03149606299212598</v>
       </c>
     </row>
     <row r="101">
@@ -2154,16 +2154,16 @@
         <v>43922</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>0.007153006667863109</v>
       </c>
       <c r="C101" t="n">
-        <v>0.01182346175643989</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>0.956664595749088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2171,16 +2171,16 @@
         <v>43952</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9569070071883189</v>
+        <v>0.002441078846949194</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9241151740788696</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3522132825430839</v>
+        <v>0.1910154314680839</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9795497106727131</v>
+        <v>0.7007874015748031</v>
       </c>
     </row>
     <row r="103">
@@ -2188,16 +2188,16 @@
         <v>43983</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6138188260274466</v>
+        <v>0.1600625292098556</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9824998107526026</v>
+        <v>0.5433070866141732</v>
       </c>
     </row>
     <row r="104">
@@ -2205,16 +2205,16 @@
         <v>44013</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8619915693855537</v>
+        <v>0.04850669913652904</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8719716723206929</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6223428498919439</v>
+        <v>0.1812285261053789</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9876516371695102</v>
+        <v>0.4409448818897639</v>
       </c>
     </row>
     <row r="105">
@@ -2222,16 +2222,16 @@
         <v>44044</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9301592416903756</v>
+        <v>0.04752654124581396</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8827494139037064</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D105" t="n">
-        <v>0.568632768710604</v>
+        <v>0.1400546445216502</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9869906892720072</v>
+        <v>0.3385826771653543</v>
       </c>
     </row>
     <row r="106">
@@ -2239,16 +2239,16 @@
         <v>44075</v>
       </c>
       <c r="B106" t="n">
-        <v>0.8220104815944788</v>
+        <v>0.04742812689246408</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8519897923760563</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4905468607131919</v>
+        <v>0.1424799880479135</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9811618247421615</v>
+        <v>0.2913385826771654</v>
       </c>
     </row>
     <row r="107">
@@ -2256,16 +2256,16 @@
         <v>44105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.8854473545587337</v>
+        <v>0.03026851413993361</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8424105555477105</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4091997879257664</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9753990616390603</v>
+        <v>0.2283464566929134</v>
       </c>
     </row>
     <row r="108">
@@ -2273,16 +2273,16 @@
         <v>44136</v>
       </c>
       <c r="B108" t="n">
-        <v>0.809529527014256</v>
+        <v>0.03033226786659953</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8247803516057473</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4466437111373774</v>
+        <v>0.1096537632072</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9751453397140232</v>
+        <v>0.1968503937007874</v>
       </c>
     </row>
     <row r="109">
@@ -2290,16 +2290,16 @@
         <v>44166</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8080962408847309</v>
+        <v>0.02778051125456074</v>
       </c>
       <c r="C109" t="n">
-        <v>0.804278529958791</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5321018246348093</v>
+        <v>0.1571441550205173</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9875337282372185</v>
+        <v>0.1811023622047244</v>
       </c>
     </row>
     <row r="110">
@@ -2307,16 +2307,16 @@
         <v>44197</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8037985530107958</v>
+        <v>0.03155011901999335</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8336290661528916</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4943928131909315</v>
+        <v>0.2336628207568952</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9869867133354615</v>
+        <v>0.1574803149606299</v>
       </c>
     </row>
     <row r="111">
@@ -2324,16 +2324,16 @@
         <v>44228</v>
       </c>
       <c r="B111" t="n">
-        <v>0.8186046173234472</v>
+        <v>0.03175992582297135</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8366655330876169</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5855552089591999</v>
+        <v>0.1968889727881753</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9809566549164035</v>
+        <v>0.1417322834645669</v>
       </c>
     </row>
     <row r="112">
@@ -2341,16 +2341,16 @@
         <v>44256</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8259506443671929</v>
+        <v>0.03011004438322751</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8445415267298729</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6801679785195373</v>
+        <v>0.1616676977997149</v>
       </c>
       <c r="E112" t="n">
-        <v>0.991288101526027</v>
+        <v>0.1338582677165355</v>
       </c>
     </row>
     <row r="113">
@@ -2358,16 +2358,16 @@
         <v>44287</v>
       </c>
       <c r="B113" t="n">
-        <v>0.8215175625321907</v>
+        <v>0.02733346395037888</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8254862688070219</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D113" t="n">
-        <v>0.681290936005489</v>
+        <v>0.2607593335030523</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.1259842519685039</v>
       </c>
     </row>
     <row r="114">
@@ -2375,16 +2375,16 @@
         <v>44317</v>
       </c>
       <c r="B114" t="n">
-        <v>0.8177091421539534</v>
+        <v>0.02745254095925249</v>
       </c>
       <c r="C114" t="n">
-        <v>0.832893679041615</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7097890436050871</v>
+        <v>0.1858998077277313</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9953177368131433</v>
+        <v>0.1102362204724409</v>
       </c>
     </row>
     <row r="115">
@@ -2392,16 +2392,16 @@
         <v>44348</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8139240932155383</v>
+        <v>0.02713400996946776</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8407928447358934</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7918698206865462</v>
+        <v>0.2178537706115491</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9938378403237628</v>
+        <v>0.09448818897637801</v>
       </c>
     </row>
     <row r="116">
@@ -2409,16 +2409,16 @@
         <v>44378</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8447262678280361</v>
+        <v>0.02775501540122831</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8435193384603674</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5933676549433829</v>
+        <v>0.2091864466304862</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9902418238171297</v>
+        <v>0.07874015748031499</v>
       </c>
     </row>
     <row r="117">
@@ -2426,16 +2426,16 @@
         <v>44409</v>
       </c>
       <c r="B117" t="n">
-        <v>0.8216318148412766</v>
+        <v>0.02810239121295804</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8394124451332354</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5369842896455852</v>
+        <v>0.1259036300429093</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9875954422895242</v>
+        <v>0.06299212598425197</v>
       </c>
     </row>
     <row r="118">
@@ -2443,16 +2443,16 @@
         <v>44440</v>
       </c>
       <c r="B118" t="n">
-        <v>0.829324685465715</v>
+        <v>0.02857029499533253</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8353603053475847</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5733056891296506</v>
+        <v>0.1475273773646412</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9826403914483204</v>
+        <v>0.04724409448818895</v>
       </c>
     </row>
     <row r="119">
@@ -2460,16 +2460,16 @@
         <v>44470</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8248883981973458</v>
+        <v>0.03082496359602787</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8435751480102291</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7869501147721993</v>
+        <v>0.1017300038812421</v>
       </c>
       <c r="E119" t="n">
-        <v>0.990822126533077</v>
+        <v>0.03937007874015752</v>
       </c>
     </row>
     <row r="120">
@@ -2477,16 +2477,16 @@
         <v>44501</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8454799427581161</v>
+        <v>0.03048373292694517</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8372741196385735</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7086646182002438</v>
+        <v>0.1863476499770948</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9952808646827681</v>
+        <v>0.03149606299212598</v>
       </c>
     </row>
     <row r="121">
@@ -2494,16 +2494,16 @@
         <v>44531</v>
       </c>
       <c r="B121" t="n">
-        <v>0.8253004314759759</v>
+        <v>0.0308122633484096</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8355296793252621</v>
+        <v>0.3310842674472362</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6505070675988471</v>
+        <v>0.1234587698169114</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9964095594698834</v>
+        <v>0.03149606299212598</v>
       </c>
     </row>
     <row r="122">
@@ -2511,16 +2511,16 @@
         <v>44562</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8417655800512969</v>
+        <v>0.02832386164977568</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8279498252863896</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6833060359507753</v>
+        <v>0.2600526618977168</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9934873959452977</v>
+        <v>0.0236220472440945</v>
       </c>
     </row>
     <row r="123">
@@ -2528,16 +2528,16 @@
         <v>44593</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8225231991975527</v>
+        <v>0.02788714381667229</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8476052779413291</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7548506731960245</v>
+        <v>0.1963659753574257</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9891751212416464</v>
+        <v>0.01574803149606296</v>
       </c>
     </row>
     <row r="124">
@@ -2545,16 +2545,16 @@
         <v>44621</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8314178054745589</v>
+        <v>0.02569216609784507</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8296529253655485</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9618970566512602</v>
+        <v>0.1145759783523166</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9891880507522977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -2562,16 +2562,16 @@
         <v>44652</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7954831318683658</v>
+        <v>0.02894724815651477</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8238175672650873</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5362716851339961</v>
+        <v>0.165432040914761</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9868666973528365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2579,16 +2579,16 @@
         <v>44682</v>
       </c>
       <c r="B126" t="n">
-        <v>0.8174440166948352</v>
+        <v>0.0264670381645621</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8277797188483189</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8373213481418396</v>
+        <v>0.191356105359252</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9894910767429179</v>
+        <v>0.007874015748031482</v>
       </c>
     </row>
     <row r="127">
@@ -2596,16 +2596,16 @@
         <v>44713</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7989289927695611</v>
+        <v>0.02412944268448464</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8279645765271101</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0.2572715443067511</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9998990712482405</v>
+        <v>0.007874015748031482</v>
       </c>
     </row>
     <row r="128">
@@ -2613,16 +2613,16 @@
         <v>44743</v>
       </c>
       <c r="B128" t="n">
-        <v>0.8140641755195509</v>
+        <v>0.03126819305792936</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8350499354766038</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3707296219929684</v>
+        <v>0.228223095977973</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9771713840447283</v>
+        <v>0.007874015748031482</v>
       </c>
     </row>
     <row r="129">
@@ -2630,16 +2630,16 @@
         <v>44774</v>
       </c>
       <c r="B129" t="n">
-        <v>0.8208919451701608</v>
+        <v>0.0290480454205579</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8272376443346845</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4356150255383813</v>
+        <v>0.1627152249889774</v>
       </c>
       <c r="E129" t="n">
-        <v>0.9966912583357779</v>
+        <v>0.01574803149606296</v>
       </c>
     </row>
     <row r="130">
@@ -2647,16 +2647,16 @@
         <v>44805</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8120903226948355</v>
+        <v>0.02855690001523228</v>
       </c>
       <c r="C130" t="n">
-        <v>0.827137159737487</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5617259035703712</v>
+        <v>0.1836229489935056</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9931564108696392</v>
+        <v>0.01574803149606296</v>
       </c>
     </row>
     <row r="131">
@@ -2664,16 +2664,16 @@
         <v>44835</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7984613780182788</v>
+        <v>0.02980954247867918</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8261809070724782</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5863861258720136</v>
+        <v>0.2128523162817381</v>
       </c>
       <c r="E131" t="n">
-        <v>0.986597945689223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2681,16 +2681,16 @@
         <v>44866</v>
       </c>
       <c r="B132" t="n">
-        <v>0.8047628919116875</v>
+        <v>0.03145136062135408</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8249456853534888</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4252858022654106</v>
+        <v>0.1932737126589595</v>
       </c>
       <c r="E132" t="n">
-        <v>0.982967929989221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -2698,16 +2698,16 @@
         <v>44896</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8305827208491328</v>
+        <v>0.03166965035111721</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8231128340033643</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9894576781362352</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/covid19_drdfm/data/example-output/TN/df.xlsx
+++ b/covid19_drdfm/data/example-output/TN/df.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:M133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,19 +452,59 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Prod</t>
+          <t>RPFI</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FixAss</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>UI</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PartR</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>UR</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Cons3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Cons5</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CPIU</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>PCE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Hosp1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Deaths1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -480,7 +520,31 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9677419354838719</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.3937007874015748</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -491,13 +555,37 @@
         <v>0.02854924428401395</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.7184485643956399</v>
       </c>
       <c r="D3" t="n">
+        <v>0.5118284511125606</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.1835406549411467</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
+        <v>0.9032258064516121</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.3858267716535433</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0043625378007152</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.003877415564403629</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4804248097350872</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9679389035394174</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +596,37 @@
         <v>0.02872520357169816</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.7170124056693608</v>
       </c>
       <c r="D4" t="n">
+        <v>0.5255084276259856</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.179734030972134</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
+        <v>0.9032258064516121</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.3779527559055118</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.004555199375741122</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.004072553453407538</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4783596646895119</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.966573298315848</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -525,13 +637,37 @@
         <v>0.02954246875444561</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.7048653996818222</v>
       </c>
       <c r="D5" t="n">
+        <v>0.6617086060638562</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.1623193605351225</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
+        <v>0.870967741935484</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.3779527559055118</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.004913502675880228</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.004431716455090207</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4580164258916395</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9640820130383683</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -542,13 +678,37 @@
         <v>0.03099116960087926</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.7040729344943839</v>
       </c>
       <c r="D6" t="n">
+        <v>0.7657630208598114</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.1972878353670008</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
+        <v>0.870967741935484</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.3779527559055118</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.006406998232652865</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.005915228001978358</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2823120937051792</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9538741718760513</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -559,13 +719,37 @@
         <v>0.03058834048767906</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.7032893611788228</v>
       </c>
       <c r="D7" t="n">
+        <v>0.7380939581212576</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.2305463500524456</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
+        <v>0.8387096774193559</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.3779527559055118</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0060160558722323</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0055321968859506</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3408982227867237</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.956476820529933</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -576,13 +760,37 @@
         <v>0.02643042570089953</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5404742838584116</v>
       </c>
       <c r="D8" t="n">
+        <v>0.4640273408531973</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.2226489051423643</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
+        <v>0.8387096774193559</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.3779527559055118</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.005476171303997975</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.005001602701363483</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.3934463727922193</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.9600922983102562</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -593,13 +801,37 @@
         <v>0.02461675835497944</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5404295910601146</v>
       </c>
       <c r="D9" t="n">
+        <v>0.3346082483478449</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.1668119284498488</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
+        <v>0.8387096774193559</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.3700787401574803</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.003622825280070147</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.003170010269849869</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.6527359268372354</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.9726370191705382</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -610,13 +842,37 @@
         <v>0.02481047510301536</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5403847670797092</v>
       </c>
       <c r="D10" t="n">
+        <v>0.3479837505478262</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.1851362329503853</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
+        <v>0.8387096774193559</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.3622047244094488</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.003812270242335413</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.003361728682028474</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.6040928049754837</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.9712958398905062</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -627,13 +883,37 @@
         <v>0.0261491779774077</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6510090923202694</v>
       </c>
       <c r="D11" t="n">
+        <v>0.4548254836882972</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.1989747617319777</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
+        <v>0.8387096774193559</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.3622047244094488</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.003846830807501048</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.003399999594698321</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.506728251696605</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9710078867636006</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -644,13 +924,37 @@
         <v>0.02835075656707753</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6505203024975619</v>
       </c>
       <c r="D12" t="n">
+        <v>0.611447420399022</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.1883066472246464</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
+        <v>0.8387096774193559</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.3622047244094488</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.006084013022874295</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.00561989117154763</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.3006557725101743</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9557458204525275</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -661,13 +965,37 @@
         <v>0.02803312607219717</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6500370713038059</v>
       </c>
       <c r="D13" t="n">
+        <v>0.5888685135876532</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.218477047428689</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
+        <v>0.8387096774193559</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.3700787401574803</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.00575765223322767</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.005300602420313882</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.37413804795302</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.9579119267895568</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -678,13 +1006,37 @@
         <v>0.02875545947521176</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2241072720861805</v>
+        <v>0.6614605495016388</v>
       </c>
       <c r="D14" t="n">
+        <v>0.6080095823864984</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.2590310706701614</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
+        <v>0.8064516129032278</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.3779527559055118</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.004207133686069473</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.003980316719316616</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.4730736920152049</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.9666573187698657</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -695,13 +1047,37 @@
         <v>0.02768655049485424</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6609838257357292</v>
       </c>
       <c r="D15" t="n">
+        <v>0.5326753231738405</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.179227855032823</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
+        <v>0.7741935483870961</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.3779527559055118</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.003135574549381866</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.002921379969145063</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.6349860070635606</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.9739022526346681</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -712,13 +1088,37 @@
         <v>0.03067738571399201</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6605119979174856</v>
       </c>
       <c r="D16" t="n">
+        <v>0.7461188593609271</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.182764378392424</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
+        <v>0.741935483870968</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.3779527559055118</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.006195028761576472</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.005954116969250655</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.2471689513070562</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.953062076468007</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -729,13 +1129,37 @@
         <v>0.02544738396567391</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5454623469279924</v>
       </c>
       <c r="D17" t="n">
+        <v>0.4956198211890661</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.1671048491279995</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
+        <v>0.7096774193548399</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.3779527559055118</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.005860212096543584</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.005624870268122061</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.2813645162752761</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9552985360150279</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -746,13 +1170,37 @@
         <v>0.02457426708871729</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5451812052794985</v>
       </c>
       <c r="D18" t="n">
+        <v>0.4324561672086328</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.2054302374684594</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
+        <v>0.6774193548387117</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.3700787401574803</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.004968775687369578</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.004744282700799947</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.3993518297214528</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9613194141187007</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -763,13 +1211,37 @@
         <v>0.02366092943760481</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5448993288578213</v>
       </c>
       <c r="D19" t="n">
+        <v>0.366433980070785</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.2251961044049816</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
+        <v>0.6451612903225801</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.3700787401574803</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.004036458060199617</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.003823184029004661</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4918638127890506</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9676185898792923</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -780,13 +1252,37 @@
         <v>0.02754999267120356</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6257677213809226</v>
       </c>
       <c r="D20" t="n">
+        <v>0.5217864134002852</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.2172786079441921</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
+        <v>0.5806451612903238</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.3622047244094488</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.004593136424516864</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.004376889213511862</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4719810427311055</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9637948380358665</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -797,13 +1293,37 @@
         <v>0.02736506913445757</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6253044957452888</v>
       </c>
       <c r="D21" t="n">
+        <v>0.5083886273404691</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.1581137257820528</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
+        <v>0.5161290322580676</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.3543307086614174</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.004406065015966864</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.004193905194860808</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.4921920362000497</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.9650278671739611</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -814,13 +1334,37 @@
         <v>0.02805175429263147</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.624846282811235</v>
       </c>
       <c r="D22" t="n">
+        <v>0.5569955434351345</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.1744040402799575</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
+        <v>0.4516129032258078</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.3464566929133858</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.005105941996568324</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.004889408251338917</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3976005690238599</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9602308122521267</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -831,13 +1375,37 @@
         <v>0.02742776659091263</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6095073266662812</v>
       </c>
       <c r="D23" t="n">
+        <v>0.5034922178030968</v>
+      </c>
+      <c r="E23" t="n">
         <v>0.1889895765898147</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
+        <v>0.4193548387096762</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.3307086614173229</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.004299531946121639</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.004092943836334921</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.4050553748719518</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.9656751792246812</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -848,13 +1416,37 @@
         <v>0.02749908627701827</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6092183804329117</v>
       </c>
       <c r="D24" t="n">
+        <v>0.50841700678628</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.1988497764457491</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
+        <v>0.3548387096774199</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.3228346456692913</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.004374366474727592</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.004169317378101647</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.4666731454969064</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.9651282623410788</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -865,13 +1457,37 @@
         <v>0.02723158727942904</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6089318663341015</v>
       </c>
       <c r="D25" t="n">
+        <v>0.4892408635781825</v>
+      </c>
+      <c r="E25" t="n">
         <v>0.2270205481109467</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
+        <v>0.3225806451612918</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.3070866141732284</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.004104392937837857</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.003904147003750243</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.504271433281398</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.9669260016326096</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -882,13 +1498,37 @@
         <v>0.02554234051433074</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1941804451611424</v>
+        <v>0.6116808299076423</v>
       </c>
       <c r="D26" t="n">
+        <v>0.525413191176226</v>
+      </c>
+      <c r="E26" t="n">
         <v>0.21158434543635</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
+        <v>0.2903225806451601</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.2913385826771654</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.004855407368360918</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.004730082649062902</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.493934346505972</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9665405811298221</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -899,13 +1539,37 @@
         <v>0.02633731528484516</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6115253246228403</v>
       </c>
       <c r="D27" t="n">
+        <v>0.5814919047808152</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.2153180551774241</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
+        <v>0.258064516129032</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.2834645669291338</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.005654182773766532</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.005523826863884048</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.4316850960443767</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.9610381658735081</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -916,13 +1580,37 @@
         <v>0.02547962148614218</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6113708077963861</v>
       </c>
       <c r="D28" t="n">
+        <v>0.5200088355408559</v>
+      </c>
+      <c r="E28" t="n">
         <v>0.1729890304604476</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
+        <v>0.2258064516129039</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.2834645669291338</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.004771268617019079</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.004651860263203019</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.4759716818008413</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.9669709174555586</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -933,13 +1621,37 @@
         <v>0.02831150894654254</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6740709601401678</v>
       </c>
       <c r="D29" t="n">
+        <v>0.4598819556752013</v>
+      </c>
+      <c r="E29" t="n">
         <v>0.1686358421397594</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
+        <v>0.1935483870967758</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.2755905511811024</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.004799438551221969</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.004682275956953028</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.467607911577312</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.9667094161832184</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -950,13 +1662,37 @@
         <v>0.02842648201133629</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6728918035002089</v>
       </c>
       <c r="D30" t="n">
+        <v>0.4687470676020736</v>
+      </c>
+      <c r="E30" t="n">
         <v>0.1968067852822536</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
+        <v>0.1612903225806477</v>
+      </c>
+      <c r="G30" t="n">
         <v>0.2755905511811024</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.004923347744837184</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.004807490879091454</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.4694354679379368</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9657974574043684</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -967,13 +1703,37 @@
         <v>0.02877031981690803</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6717333866969946</v>
       </c>
       <c r="D31" t="n">
+        <v>0.4938834282000907</v>
+      </c>
+      <c r="E31" t="n">
         <v>0.2362511181534099</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
+        <v>0.1612903225806477</v>
+      </c>
+      <c r="G31" t="n">
         <v>0.2755905511811024</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.00528005606716638</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.005163260540127059</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.4420601940130754</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.9633029987871482</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -984,13 +1744,37 @@
         <v>0.02804690025615383</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6336797393495319</v>
       </c>
       <c r="D32" t="n">
+        <v>0.4770020523626891</v>
+      </c>
+      <c r="E32" t="n">
         <v>0.2219316876741235</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
+        <v>0.129032258064516</v>
+      </c>
+      <c r="G32" t="n">
         <v>0.2677165354330708</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.005037633110018375</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.004925574586490469</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.4328522352647602</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.9648830981661997</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1001,13 +1785,37 @@
         <v>0.02902257091214969</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6331106616707727</v>
       </c>
       <c r="D33" t="n">
+        <v>0.5467414645466739</v>
+      </c>
+      <c r="E33" t="n">
         <v>0.1609041493079177</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
+        <v>0.129032258064516</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.2677165354330708</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.006032465340403375</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.00591333808044169</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.3723022077765162</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.9580503926351426</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1018,13 +1826,37 @@
         <v>0.02878185291148553</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6325484192673977</v>
       </c>
       <c r="D34" t="n">
+        <v>0.5299463753693062</v>
+      </c>
+      <c r="E34" t="n">
         <v>0.1815423143329379</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
+        <v>0.1612903225806477</v>
+      </c>
+      <c r="G34" t="n">
         <v>0.2598425196850394</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.005789460617594343</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.005675021462178664</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.3832166305801797</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.9596354928650028</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1035,13 +1867,37 @@
         <v>0.02828282291299345</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6262822292524294</v>
       </c>
       <c r="D35" t="n">
+        <v>0.6355327080087267</v>
+      </c>
+      <c r="E35" t="n">
         <v>0.1832107057909775</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
+        <v>0.1612903225806477</v>
+      </c>
+      <c r="G35" t="n">
         <v>0.2519685039370079</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.006090434351638287</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.005975478102056347</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.3705152434098531</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.9575220698412108</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1052,13 +1908,37 @@
         <v>0.02858873907942005</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6260644499661442</v>
       </c>
       <c r="D36" t="n">
+        <v>0.6571977300716065</v>
+      </c>
+      <c r="E36" t="n">
         <v>0.1957331019895111</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
+        <v>0.1612903225806477</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.2440944881889763</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.006397703441387</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.006282143867186605</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.2910385964014466</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.9553663852445861</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1069,13 +1949,37 @@
         <v>0.02904846625264026</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.625848228501326</v>
       </c>
       <c r="D37" t="n">
+        <v>0.6898055727428358</v>
+      </c>
+      <c r="E37" t="n">
         <v>0.2181532394896852</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
+        <v>0.1612903225806477</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.2362204724409449</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.006861535284790231</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.006743855893482807</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.2342588880723614</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.9521466689884892</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1086,13 +1990,37 @@
         <v>0.03330285485476522</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7295204522692547</v>
+        <v>0.6318306657002961</v>
       </c>
       <c r="D38" t="n">
+        <v>0.9139940466904504</v>
+      </c>
+      <c r="E38" t="n">
         <v>0.2601411304845623</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
+        <v>0.1612903225806477</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.2283464566929134</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.009261265886948738</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.009014920220300938</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.07870096975326518</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.9391826878446033</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1103,13 +2031,37 @@
         <v>0.02947179349367488</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6315637423129115</v>
       </c>
       <c r="D39" t="n">
+        <v>0.6425539798135415</v>
+      </c>
+      <c r="E39" t="n">
         <v>0.174284048754317</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
+        <v>0.1612903225806477</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.2283464566929134</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.005378515540462771</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.00517276979210718</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.4991270461619542</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.965489893197179</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1120,13 +2072,37 @@
         <v>0.0292796517303658</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6312989701138305</v>
       </c>
       <c r="D40" t="n">
+        <v>0.6299609269281845</v>
+      </c>
+      <c r="E40" t="n">
         <v>0.2157953246432206</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
+        <v>0.1612903225806477</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.2204724409448819</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.00519850248044275</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.004998056502667234</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5066174053952723</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.9666207178331913</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1137,13 +2113,37 @@
         <v>0.03003849705168015</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6424216917919249</v>
       </c>
       <c r="D41" t="n">
+        <v>0.6303111005011204</v>
+      </c>
+      <c r="E41" t="n">
         <v>0.1363917610335028</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
+        <v>0.1935483870967758</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.2125984251968504</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.005893953750855697</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.005690425249075192</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.4289422565245661</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.9617994349538268</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1154,13 +2154,37 @@
         <v>0.02902768447575245</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6421767569692117</v>
       </c>
       <c r="D42" t="n">
+        <v>0.5598805432397904</v>
+      </c>
+      <c r="E42" t="n">
         <v>0.1968838085882076</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
+        <v>0.1935483870967758</v>
+      </c>
+      <c r="G42" t="n">
         <v>0.2047244094488189</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.004881570848105096</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.004691174512969215</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5349905266530876</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.9685919911023991</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1171,13 +2195,37 @@
         <v>0.0292720250597524</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6419332144368624</v>
       </c>
       <c r="D43" t="n">
+        <v>0.578716680410301</v>
+      </c>
+      <c r="E43" t="n">
         <v>0.2402924044672868</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
+        <v>0.1935483870967758</v>
+      </c>
+      <c r="G43" t="n">
         <v>0.1968503937007874</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.005146166487456231</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.004956698692035584</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5101022712614719</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.9667021880574344</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1188,13 +2236,37 @@
         <v>0.02823774592737393</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6244228642882693</v>
       </c>
       <c r="D44" t="n">
+        <v>0.5757167238723182</v>
+      </c>
+      <c r="E44" t="n">
         <v>0.2272012726404679</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
+        <v>0.1935483870967758</v>
+      </c>
+      <c r="G44" t="n">
         <v>0.1811023622047244</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.005820545853826709</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.00562806027625942</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.4545412938591608</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.9620265158749708</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1205,13 +2277,37 @@
         <v>0.02872023417810403</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6242663870071936</v>
       </c>
       <c r="D45" t="n">
+        <v>0.6104119901456098</v>
+      </c>
+      <c r="E45" t="n">
         <v>0.1587740312618161</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
+        <v>0.1935483870967758</v>
+      </c>
+      <c r="G45" t="n">
         <v>0.1732283464566929</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.006308493364038553</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.006114721204782617</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.3796449961608567</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.9586193262337169</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1222,13 +2318,37 @@
         <v>0.02961339368294928</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6241106498268646</v>
       </c>
       <c r="D46" t="n">
+        <v>0.6743191820893594</v>
+      </c>
+      <c r="E46" t="n">
         <v>0.1727559557091469</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
+        <v>0.1935483870967758</v>
+      </c>
+      <c r="G46" t="n">
         <v>0.1653543307086614</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.007214385501267618</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.007015303912857349</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.2738033829246919</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.9523708961543608</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1239,13 +2359,37 @@
         <v>0.02713172778757088</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5565817053626622</v>
       </c>
       <c r="D47" t="n">
+        <v>0.5674052461221737</v>
+      </c>
+      <c r="E47" t="n">
         <v>0.1938784377361853</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
+        <v>0.1935483870967758</v>
+      </c>
+      <c r="G47" t="n">
         <v>0.1496062992125984</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.006378187535790864</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.006190342302909399</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.4264502145385787</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.9579696750175393</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1256,13 +2400,37 @@
         <v>0.02667313969715654</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5565615544177023</v>
       </c>
       <c r="D48" t="n">
+        <v>0.5346530673446687</v>
+      </c>
+      <c r="E48" t="n">
         <v>0.2009515020601017</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
+        <v>0.2258064516129039</v>
+      </c>
+      <c r="G48" t="n">
         <v>0.1417322834645669</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.005899745977720734</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.005719689375233477</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.4361074937639563</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.9611364394003525</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1273,13 +2441,37 @@
         <v>0.02753466635413057</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5565414033547259</v>
       </c>
       <c r="D49" t="n">
+        <v>0.5958171604773197</v>
+      </c>
+      <c r="E49" t="n">
         <v>0.2191613325260596</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
+        <v>0.258064516129032</v>
+      </c>
+      <c r="G49" t="n">
         <v>0.1338582677165355</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.006764786090911911</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.006579684260213963</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.3291286649421136</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.9551682272165031</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1290,13 +2482,37 @@
         <v>0.02702789372153784</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>0.5853363262999295</v>
       </c>
       <c r="D50" t="n">
+        <v>0.5689412567987667</v>
+      </c>
+      <c r="E50" t="n">
         <v>0.256120248767995</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
+        <v>0.2903225806451601</v>
+      </c>
+      <c r="G50" t="n">
         <v>0.1259842519685039</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.005622153825015377</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.006033858417392421</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.3582333302100829</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.9607309983917958</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1307,13 +2523,37 @@
         <v>0.02771267244567886</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5852843363322725</v>
       </c>
       <c r="D51" t="n">
+        <v>0.6172761623310814</v>
+      </c>
+      <c r="E51" t="n">
         <v>0.2071904983722029</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
+        <v>0.2903225806451601</v>
+      </c>
+      <c r="G51" t="n">
         <v>0.1181102362204725</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.006311089610657427</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.006714506497649731</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.317139331932879</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.9559797406527168</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1324,13 +2564,37 @@
         <v>0.02593383123921913</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5852325412795683</v>
       </c>
       <c r="D52" t="n">
+        <v>0.4903452600695959</v>
+      </c>
+      <c r="E52" t="n">
         <v>0.1687402502240181</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
+        <v>0.3225806451612918</v>
+      </c>
+      <c r="G52" t="n">
         <v>0.1181102362204725</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.00449307748783743</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.004912101150026965</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.527342817213182</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.9682764402574415</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1341,13 +2605,37 @@
         <v>0.02567435354078935</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5680617658425702</v>
       </c>
       <c r="D53" t="n">
+        <v>0.4005458959492691</v>
+      </c>
+      <c r="E53" t="n">
         <v>0.1536761584201907</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
+        <v>0.3225806451612918</v>
+      </c>
+      <c r="G53" t="n">
         <v>0.1102362204724409</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.003874577390575114</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.004297806362336657</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5600276253743403</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.9724172516696103</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1358,13 +2646,37 @@
         <v>0.02677260078116139</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5680003843352313</v>
       </c>
       <c r="D54" t="n">
+        <v>0.4783528959639114</v>
+      </c>
+      <c r="E54" t="n">
         <v>0.1499514615872476</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
+        <v>0.3548387096774199</v>
+      </c>
+      <c r="G54" t="n">
         <v>0.1181102362204725</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.004985867369364119</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.005396849710695673</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.4911291353516724</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.9647954030113071</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1375,13 +2687,37 @@
         <v>0.02651471898567088</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5679391233238588</v>
       </c>
       <c r="D55" t="n">
+        <v>0.4596832280422762</v>
+      </c>
+      <c r="E55" t="n">
         <v>0.2534207300399438</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
+        <v>0.3548387096774199</v>
+      </c>
+      <c r="G55" t="n">
         <v>0.1181102362204725</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.00471719862317649</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.005129095797109555</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5104932049111612</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.9665581937920824</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1392,13 +2728,37 @@
         <v>0.02818566323002386</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6083255336079662</v>
       </c>
       <c r="D56" t="n">
+        <v>0.5949120709524416</v>
+      </c>
+      <c r="E56" t="n">
         <v>0.223061165628514</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
+        <v>0.3870967741935516</v>
+      </c>
+      <c r="G56" t="n">
         <v>0.1259842519685039</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.005626628056738124</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.006028240946390494</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.3560972505717873</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.9603096985690595</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1409,13 +2769,37 @@
         <v>0.02752162507371374</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6081973872889238</v>
       </c>
       <c r="D57" t="n">
+        <v>0.5477053303467418</v>
+      </c>
+      <c r="E57" t="n">
         <v>0.1609500969387897</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
+        <v>0.4193548387096762</v>
+      </c>
+      <c r="G57" t="n">
         <v>0.1259842519685039</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.004949321121775265</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.005355779970465807</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.4669182200412889</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.9648524551104239</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1426,13 +2810,37 @@
         <v>0.02737047853750412</v>
       </c>
       <c r="C58" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6080699609222519</v>
       </c>
       <c r="D58" t="n">
+        <v>0.5369866182749976</v>
+      </c>
+      <c r="E58" t="n">
         <v>0.1691666716894486</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
+        <v>0.4516129032258078</v>
+      </c>
+      <c r="G58" t="n">
         <v>0.1338582677165355</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.004793958364270826</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.005200312059424654</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5033182562553414</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.9658462222735239</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1443,13 +2851,37 @@
         <v>0.02811837691177569</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6193424256438583</v>
       </c>
       <c r="D59" t="n">
+        <v>0.5675634757553047</v>
+      </c>
+      <c r="E59" t="n">
         <v>0.2012505357401732</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
+        <v>0.4516129032258078</v>
+      </c>
+      <c r="G59" t="n">
         <v>0.1338582677165355</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.004492263512318993</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.004899924690926932</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.4901319569909405</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.9678357228058145</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1460,13 +2892,37 @@
         <v>0.02920810972428605</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6192083717230648</v>
       </c>
       <c r="D60" t="n">
+        <v>0.6456482437852504</v>
+      </c>
+      <c r="E60" t="n">
         <v>0.1982556151343319</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
+        <v>0.4516129032258078</v>
+      </c>
+      <c r="G60" t="n">
         <v>0.1259842519685039</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.005608897779677895</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.006004377875216395</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.4353786391004341</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.9601796615295174</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1477,13 +2933,37 @@
         <v>0.02831976229100934</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6190749075514353</v>
       </c>
       <c r="D61" t="n">
+        <v>0.5829961980813276</v>
+      </c>
+      <c r="E61" t="n">
         <v>0.2324426704450532</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
+        <v>0.4193548387096762</v>
+      </c>
+      <c r="G61" t="n">
         <v>0.1181102362204725</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.00471250013656006</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.005114988465209644</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.4986856164755484</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.9662146507041421</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1494,13 +2974,37 @@
         <v>0.02607601078930318</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5699024206519272</v>
+        <v>0.6221622188688825</v>
       </c>
       <c r="D62" t="n">
+        <v>0.4381056187485597</v>
+      </c>
+      <c r="E62" t="n">
         <v>0.2550755185216139</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
+        <v>0.4193548387096762</v>
+      </c>
+      <c r="G62" t="n">
         <v>0.1102362204724409</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.003224929168288599</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.004238866572800689</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5700337409100718</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.9741675116419231</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1511,13 +3015,37 @@
         <v>0.02739073880378355</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6218937518942165</v>
       </c>
       <c r="D63" t="n">
+        <v>0.5316082152318696</v>
+      </c>
+      <c r="E63" t="n">
         <v>0.1950288308482777</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
+        <v>0.4193548387096762</v>
+      </c>
+      <c r="G63" t="n">
         <v>0.09448818897637801</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.004563102547362429</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.005558104969224775</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.454856946818932</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.9650207628940169</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1528,13 +3056,37 @@
         <v>0.02864773408298383</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6216275872041067</v>
       </c>
       <c r="D64" t="n">
+        <v>0.6210042988632594</v>
+      </c>
+      <c r="E64" t="n">
         <v>0.1658941576586538</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
+        <v>0.4516129032258078</v>
+      </c>
+      <c r="G64" t="n">
         <v>0.07874015748031499</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.005842523561823729</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.0068192236143267</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.3578150554331625</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.9562735189784204</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1545,13 +3097,37 @@
         <v>0.025996439128715</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5896473548656043</v>
       </c>
       <c r="D65" t="n">
+        <v>0.4518616455043363</v>
+      </c>
+      <c r="E65" t="n">
         <v>0.1752307616859588</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
+        <v>0.4516129032258078</v>
+      </c>
+      <c r="G65" t="n">
         <v>0.05511811023622049</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.004142324185324498</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.005129170787469917</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.4379823293781138</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.967792310613265</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1562,13 +3138,37 @@
         <v>0.02749779647951455</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5894841457230454</v>
       </c>
       <c r="D66" t="n">
+        <v>0.5582488328123673</v>
+      </c>
+      <c r="E66" t="n">
         <v>0.2227936385142192</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
+        <v>0.4838709677419359</v>
+      </c>
+      <c r="G66" t="n">
         <v>0.03937007874015752</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.005665375206795912</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.006631742123917704</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.3433451879440547</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.9573885046215503</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1579,13 +3179,37 @@
         <v>0.02674525915507946</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5893218658642572</v>
       </c>
       <c r="D67" t="n">
+        <v>0.5042860534960951</v>
+      </c>
+      <c r="E67" t="n">
         <v>0.2469117609692457</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
+        <v>0.4838709677419359</v>
+      </c>
+      <c r="G67" t="n">
         <v>0.03149606299212598</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.004894861141942784</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.005862661522893648</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.410549347079741</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.9625847141759466</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1596,13 +3220,37 @@
         <v>0.02812288256362342</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5671044418712968</v>
       </c>
       <c r="D68" t="n">
+        <v>0.5290398146271077</v>
+      </c>
+      <c r="E68" t="n">
         <v>0.2049997156904114</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
+        <v>0.5161290322580676</v>
+      </c>
+      <c r="G68" t="n">
         <v>0.0236220472440945</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.005319981358728604</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.006277896978646747</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.3952852113377378</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.9596490326494385</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1613,13 +3261,37 @@
         <v>0.02683538196737278</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5670418853035762</v>
       </c>
       <c r="D69" t="n">
+        <v>0.4373508510210382</v>
+      </c>
+      <c r="E69" t="n">
         <v>0.1917396694696659</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
+        <v>0.5161290322580676</v>
+      </c>
+      <c r="G69" t="n">
         <v>0.01574803149606296</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.004009997552481164</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.004974621201440182</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5609150233935125</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.9685152302080455</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1630,13 +3302,37 @@
         <v>0.02599506884124383</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5669794505375003</v>
       </c>
       <c r="D70" t="n">
+        <v>0.3774773328190402</v>
+      </c>
+      <c r="E70" t="n">
         <v>0.1640007661351126</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
+        <v>0.5161290322580676</v>
+      </c>
+      <c r="G70" t="n">
         <v>0.01574803149606296</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.003155077418123198</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.004122141815758528</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.6199503001817661</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.9742869427779088</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1647,13 +3343,37 @@
         <v>0.02893583800414008</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6588374392742018</v>
       </c>
       <c r="D71" t="n">
+        <v>0.5311593547633325</v>
+      </c>
+      <c r="E71" t="n">
         <v>0.2075397935757529</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
+        <v>0.5161290322580676</v>
+      </c>
+      <c r="G71" t="n">
         <v>0.01574803149606296</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.004549471962164538</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.005497620270451878</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.4163665091399184</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.9647592257847142</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1664,13 +3384,37 @@
         <v>0.02880304880068098</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6581645933858788</v>
       </c>
       <c r="D72" t="n">
+        <v>0.5226878068268705</v>
+      </c>
+      <c r="E72" t="n">
         <v>0.1852827037781786</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
+        <v>0.5161290322580676</v>
+      </c>
+      <c r="G72" t="n">
         <v>0.01574803149606296</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.004428993920870905</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.005372718343543474</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5054531287823583</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.9655357433002423</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1681,13 +3425,37 @@
         <v>0.02890895504219941</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6575008589071965</v>
       </c>
       <c r="D73" t="n">
+        <v>0.5311846475676132</v>
+      </c>
+      <c r="E73" t="n">
         <v>0.2452465151429263</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
+        <v>0.4838709677419359</v>
+      </c>
+      <c r="G73" t="n">
         <v>0.0236220472440945</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.004551214255381398</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.005488266934479338</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.4790655403947179</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.9646616633608113</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1698,13 +3466,37 @@
         <v>0.02845973776127096</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2859847681014323</v>
+        <v>0.561209719201996</v>
       </c>
       <c r="D74" t="n">
+        <v>0.2985957929948042</v>
+      </c>
+      <c r="E74" t="n">
         <v>0.2433971305546622</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
+        <v>0.5161290322580676</v>
+      </c>
+      <c r="G74" t="n">
         <v>0.0236220472440945</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.003109232529177424</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.003648209338748352</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5579617292651852</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.9735329438710333</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1715,13 +3507,37 @@
         <v>0.02910636298747111</v>
       </c>
       <c r="C75" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5606869298374142</v>
       </c>
       <c r="D75" t="n">
+        <v>0.3451888375451549</v>
+      </c>
+      <c r="E75" t="n">
         <v>0.2024125115686182</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
+        <v>0.5483870967741957</v>
+      </c>
+      <c r="G75" t="n">
         <v>0.0236220472440945</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.003793196629726954</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.004323657629499269</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5115782435314746</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.9688438384149842</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1732,13 +3548,37 @@
         <v>0.029703485673092</v>
       </c>
       <c r="C76" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5601644498513149</v>
       </c>
       <c r="D76" t="n">
+        <v>0.3882297296398748</v>
+      </c>
+      <c r="E76" t="n">
         <v>0.1654547844680679</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
+        <v>0.5806451612903238</v>
+      </c>
+      <c r="G76" t="n">
         <v>0.0236220472440945</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.004426375572444826</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.004948823648385533</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.4066752155894716</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.9645001110870208</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1749,13 +3589,37 @@
         <v>0.02679107759123162</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6117567632437848</v>
       </c>
       <c r="D77" t="n">
+        <v>0.4951026215223291</v>
+      </c>
+      <c r="E77" t="n">
         <v>0.1658168587706158</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
+        <v>0.6451612903225801</v>
+      </c>
+      <c r="G77" t="n">
         <v>0.0236220472440945</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.004085196313172044</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.004608930350381657</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.4864555798421895</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.9667848214319522</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1766,13 +3630,37 @@
         <v>0.02682228386772922</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.61138904803441</v>
       </c>
       <c r="D78" t="n">
+        <v>0.4967753161819271</v>
+      </c>
+      <c r="E78" t="n">
         <v>0.1994077213122239</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
+        <v>0.6774193548387117</v>
+      </c>
+      <c r="G78" t="n">
         <v>0.0236220472440945</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.004116439403849819</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.004637931145408786</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.4990037387758953</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.9665362728472044</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1783,13 +3671,37 @@
         <v>0.02727282733072304</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6110246895582938</v>
       </c>
       <c r="D79" t="n">
+        <v>0.5282870903019946</v>
+      </c>
+      <c r="E79" t="n">
         <v>0.257479663505597</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
+        <v>0.6774193548387117</v>
+      </c>
+      <c r="G79" t="n">
         <v>0.0236220472440945</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.004574411820693817</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.005089615483967062</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.443536424040789</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.9633848452105244</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1800,13 +3712,37 @@
         <v>0.02787310091544873</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5749850196213673</v>
       </c>
       <c r="D80" t="n">
+        <v>0.5841305434322033</v>
+      </c>
+      <c r="E80" t="n">
         <v>0.2126023341495938</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
+        <v>0.6774193548387117</v>
+      </c>
+      <c r="G80" t="n">
         <v>0.0236220472440945</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.004706482906822897</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.00521852067917659</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.4183183667114636</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.9624506699879065</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1817,13 +3753,37 @@
         <v>0.02794980444112046</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5749611350929134</v>
       </c>
       <c r="D81" t="n">
+        <v>0.5893261011767202</v>
+      </c>
+      <c r="E81" t="n">
         <v>0.1389538566569482</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
+        <v>0.6774193548387117</v>
+      </c>
+      <c r="G81" t="n">
         <v>0.0236220472440945</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.004787044682999946</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.005296425171929616</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.4596972479140294</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.9618671054426999</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1834,13 +3794,37 @@
         <v>0.02710041459169044</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5749373163618994</v>
       </c>
       <c r="D82" t="n">
+        <v>0.5286368565396611</v>
+      </c>
+      <c r="E82" t="n">
         <v>0.1720963143031921</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
+        <v>0.6774193548387117</v>
+      </c>
+      <c r="G82" t="n">
         <v>0.0236220472440945</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.003925173096172766</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.004440890254983496</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.4715287686595205</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.9676953519512914</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1851,13 +3835,37 @@
         <v>0.02546064418754345</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5561653494065177</v>
       </c>
       <c r="D83" t="n">
+        <v>0.5134695359218567</v>
+      </c>
+      <c r="E83" t="n">
         <v>0.2043531551623571</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
+        <v>0.7096774193548399</v>
+      </c>
+      <c r="G83" t="n">
         <v>0.0236220472440945</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.004205965245225213</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.00471715349346098</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.4961603152117828</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.9657500705502127</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1868,13 +3876,37 @@
         <v>0.02624606199818762</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5561458774516731</v>
       </c>
       <c r="D84" t="n">
+        <v>0.5685388489068944</v>
+      </c>
+      <c r="E84" t="n">
         <v>0.1853150198752688</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
+        <v>0.741935483870968</v>
+      </c>
+      <c r="G84" t="n">
         <v>0.0236220472440945</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.005000165550695884</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.005501952255049923</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.3415997683456339</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.9603119476597124</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1885,13 +3917,37 @@
         <v>0.02637397550152502</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5561263987149175</v>
       </c>
       <c r="D85" t="n">
+        <v>0.5768360484889641</v>
+      </c>
+      <c r="E85" t="n">
         <v>0.2401681228022043</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
+        <v>0.7741935483870961</v>
+      </c>
+      <c r="G85" t="n">
         <v>0.0236220472440945</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.005125307184091442</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.00562408185190153</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.3600564217250121</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.9594258489978714</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1902,13 +3958,37 @@
         <v>0.02926544138962555</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5971182389592178</v>
+        <v>0.6086528704301831</v>
       </c>
       <c r="D86" t="n">
+        <v>0.71675713063969</v>
+      </c>
+      <c r="E86" t="n">
         <v>0.2513851901919283</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
+        <v>0.8387096774193559</v>
+      </c>
+      <c r="G86" t="n">
         <v>0.0236220472440945</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.004969017440289486</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.006248434023241422</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.3647174717258458</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.9580397579119233</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1919,13 +3999,37 @@
         <v>0.02823456347946843</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6085294352220133</v>
       </c>
       <c r="D87" t="n">
+        <v>0.643555208281371</v>
+      </c>
+      <c r="E87" t="n">
         <v>0.1897951078077775</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
+        <v>0.9032258064516121</v>
+      </c>
+      <c r="G87" t="n">
         <v>0.01574803149606296</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.003930851309646571</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.005213414935336447</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5038792710841919</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.9650809838276905</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1936,13 +4040,37 @@
         <v>0.02751303719236915</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6084066717803354</v>
       </c>
       <c r="D88" t="n">
+        <v>0.5923578329392578</v>
+      </c>
+      <c r="E88" t="n">
         <v>0.1797486789656645</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
+        <v>0.9354838709677438</v>
+      </c>
+      <c r="G88" t="n">
         <v>0.01574803149606296</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.00320736782514027</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.004490146365533402</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5913563343395413</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.9699815938231239</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1953,13 +4081,37 @@
         <v>0.02662730600818763</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6240094230386407</v>
       </c>
       <c r="D89" t="n">
+        <v>0.4352467770142099</v>
+      </c>
+      <c r="E89" t="n">
         <v>0.1542243204635999</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
+        <v>0.9677419354838719</v>
+      </c>
+      <c r="G89" t="n">
         <v>0.01574803149606296</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.002983951653630854</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.004262246323471654</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5446092017417534</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.9714802479258705</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1970,13 +4122,37 @@
         <v>0.02806324174431279</v>
       </c>
       <c r="C90" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6236521008840776</v>
       </c>
       <c r="D90" t="n">
+        <v>0.5375051041411347</v>
+      </c>
+      <c r="E90" t="n">
         <v>0.2173566230935674</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="n">
         <v>0.007874015748031482</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.004450160102107126</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.005707941198167707</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.4097728513891348</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.9614828871109893</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1987,13 +4163,37 @@
         <v>0.02803903907704384</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6232982899274738</v>
       </c>
       <c r="D91" t="n">
+        <v>0.5358772506717905</v>
+      </c>
+      <c r="E91" t="n">
         <v>0.2589120982707515</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
+        <v>0.9677419354838719</v>
+      </c>
+      <c r="G91" t="n">
         <v>0.007874015748031482</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.004430460582715368</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.005681943407021744</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.38649153885636</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.9615954132079207</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2004,13 +4204,37 @@
         <v>0.02926259854695918</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6191198777606076</v>
       </c>
       <c r="D92" t="n">
+        <v>0.5626680110125372</v>
+      </c>
+      <c r="E92" t="n">
         <v>0.2190456069916763</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
+        <v>0.9677419354838719</v>
+      </c>
+      <c r="G92" t="n">
         <v>0.007874015748031482</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.003979299437597951</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.005228655304724546</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.4792752537025191</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.9646437228756978</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2021,13 +4245,37 @@
         <v>0.02990501450038143</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6189515330793189</v>
       </c>
       <c r="D93" t="n">
+        <v>0.6096072387073054</v>
+      </c>
+      <c r="E93" t="n">
         <v>0.1438922725406699</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
+        <v>0.9354838709677438</v>
+      </c>
+      <c r="G93" t="n">
         <v>0.007874015748031482</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.004654697293218802</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.005891256966627791</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.4312301472581591</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.9600269790545484</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2038,13 +4286,37 @@
         <v>0.0296775091627617</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.618784228161531</v>
       </c>
       <c r="D94" t="n">
+        <v>0.5946346645736725</v>
+      </c>
+      <c r="E94" t="n">
         <v>0.1885941833185335</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
+        <v>0.9354838709677438</v>
+      </c>
+      <c r="G94" t="n">
         <v>0.01574803149606296</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.004444549859292127</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.005676808087908378</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.4565441355295847</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.9614356136961584</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2055,13 +4327,37 @@
         <v>0.02705734084360831</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.524790658963176</v>
       </c>
       <c r="D95" t="n">
+        <v>0.4430974252937748</v>
+      </c>
+      <c r="E95" t="n">
         <v>0.2360503195251261</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
+        <v>0.9032258064516121</v>
+      </c>
+      <c r="G95" t="n">
         <v>0.01574803149606296</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.003653683721809811</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.004887231177885505</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5099701165816628</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.9667957063588241</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2072,13 +4368,37 @@
         <v>0.02798530908400765</v>
       </c>
       <c r="C96" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5247530281317225</v>
       </c>
       <c r="D96" t="n">
+        <v>0.5090532294277019</v>
+      </c>
+      <c r="E96" t="n">
         <v>0.1474400824726577</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
+        <v>0.9032258064516121</v>
+      </c>
+      <c r="G96" t="n">
         <v>0.0236220472440945</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.004601343008988353</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.005819679150966702</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.4682875810744797</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.9603266245918292</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2089,13 +4409,37 @@
         <v>0.02676834922077109</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5247153125382961</v>
       </c>
       <c r="D97" t="n">
+        <v>0.4224003124180274</v>
+      </c>
+      <c r="E97" t="n">
         <v>0.2272328341587369</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
+        <v>0.9032258064516121</v>
+      </c>
+      <c r="G97" t="n">
         <v>0.03149606299212598</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.003366256273663307</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.004590229330288435</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.4666626050633214</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.9687096497014823</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2106,13 +4450,37 @@
         <v>0.02806602907373088</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3136853183737133</v>
+        <v>0.6224613603770058</v>
       </c>
       <c r="D98" t="n">
+        <v>0.8289762335603791</v>
+      </c>
+      <c r="E98" t="n">
         <v>0.2575082412477647</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
+        <v>0.8387096774193559</v>
+      </c>
+      <c r="G98" t="n">
         <v>0.03149606299212598</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.005722919382765789</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.001515529669192876</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.4562957516250217</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.9664542322535288</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2123,13 +4491,37 @@
         <v>0.02850144294321712</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6216599468719136</v>
       </c>
       <c r="D99" t="n">
+        <v>0.8581771050280972</v>
+      </c>
+      <c r="E99" t="n">
         <v>0.1959337397787274</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
+        <v>0.7741935483870961</v>
+      </c>
+      <c r="G99" t="n">
         <v>0.03149606299212598</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.006161593971012118</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.001966735248655259</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.439059555797408</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.9633423732977117</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.5009350788137857</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.5265151515151515</v>
       </c>
     </row>
     <row r="100">
@@ -2140,13 +4532,37 @@
         <v>0.03051935417390086</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.6208679156048952</v>
       </c>
       <c r="D100" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" t="n">
         <v>0.178748635956985</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
+        <v>0.7096774193548399</v>
+      </c>
+      <c r="G100" t="n">
         <v>0.03149606299212598</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.008210715797893998</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.00401283983517328</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.2262743642876197</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.9492734477251853</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.6930269837029122</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.5443181818181818</v>
       </c>
     </row>
     <row r="101">
@@ -2157,13 +4573,37 @@
         <v>0.007153006667863109</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.02506659229672947</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0.3925014413516217</v>
       </c>
       <c r="E101" t="n">
         <v>1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.01010039122905708</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.005900810636380281</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.9362916290410209</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.5284531124766231</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.5579545454545455</v>
       </c>
     </row>
     <row r="102">
@@ -2174,13 +4614,37 @@
         <v>0.002441078846949194</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.01285393579636818</v>
       </c>
       <c r="D102" t="n">
+        <v>0.1130826795265238</v>
+      </c>
+      <c r="E102" t="n">
         <v>0.1910154314680839</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
+        <v>0.3225806451612918</v>
+      </c>
+      <c r="G102" t="n">
         <v>0.7007874015748031</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.006158222940687325</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.002012289743320407</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.3522132825430839</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.9629923664167638</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.5056104728827144</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.5318181818181817</v>
       </c>
     </row>
     <row r="103">
@@ -2191,13 +4655,37 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3310842674472362</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
         <v>0.1600625292098556</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
+        <v>0.258064516129032</v>
+      </c>
+      <c r="G103" t="n">
         <v>0.5433070866141732</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.004596461629314271</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.0004813037672527767</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.6138188260274466</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.9734976021779451</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.728159230563719</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.5431818181818182</v>
       </c>
     </row>
     <row r="104">
@@ -2208,13 +4696,37 @@
         <v>0.04850669913652904</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3310842674472362</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
+        <v>0.8867727652182698</v>
+      </c>
+      <c r="E104" t="n">
         <v>0.1812285261053789</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
+        <v>0.3548387096774199</v>
+      </c>
+      <c r="G104" t="n">
         <v>0.4409448818897639</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.004958477099693898</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.0008555735282152152</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.6223428498919439</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.9709144307873941</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.9690088164573871</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.6314393939393939</v>
       </c>
     </row>
     <row r="105">
@@ -2225,13 +4737,37 @@
         <v>0.04752654124581396</v>
       </c>
       <c r="C105" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.9924023462562079</v>
       </c>
       <c r="D105" t="n">
+        <v>0.8775903075680934</v>
+      </c>
+      <c r="E105" t="n">
         <v>0.1400546445216502</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
+        <v>0.3548387096774199</v>
+      </c>
+      <c r="G105" t="n">
         <v>0.3385826771653543</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.004874332484871022</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.0007877412287123887</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.568632768710604</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.9713683439790582</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.09230563718942025</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.4678030303030303</v>
       </c>
     </row>
     <row r="106">
@@ -2242,13 +4778,37 @@
         <v>0.04742812689246408</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.9850834145611003</v>
       </c>
       <c r="D106" t="n">
+        <v>0.9264457782909765</v>
+      </c>
+      <c r="E106" t="n">
         <v>0.1424799880479135</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
+        <v>0.5161290322580676</v>
+      </c>
+      <c r="G106" t="n">
         <v>0.2913385826771654</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.005619318596630026</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.001540951685143343</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.4905468607131919</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.9661813748160424</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.5017365749398878</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.5295454545454545</v>
       </c>
     </row>
     <row r="107">
@@ -2259,13 +4819,37 @@
         <v>0.03026851413993361</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.7629774518284037</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>0.6451515398227012</v>
       </c>
       <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.4838709677419359</v>
+      </c>
+      <c r="G107" t="n">
         <v>0.2283464566929134</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.006526058130807372</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.002454187844644525</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.4091997879257664</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.9598946761274347</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.7671653753673524</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.7189393939393939</v>
       </c>
     </row>
     <row r="108">
@@ -2276,13 +4860,37 @@
         <v>0.03033226786659953</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.7606007788156891</v>
       </c>
       <c r="D108" t="n">
+        <v>0.6510750019786394</v>
+      </c>
+      <c r="E108" t="n">
         <v>0.1096537632072</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
+        <v>0.5161290322580676</v>
+      </c>
+      <c r="G108" t="n">
         <v>0.1968503937007874</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.006603065555729476</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.002545412611955415</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.4466437111373774</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.9592553680439437</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.6206251669783597</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.8886363636363637</v>
       </c>
     </row>
     <row r="109">
@@ -2293,13 +4901,37 @@
         <v>0.02778051125456074</v>
       </c>
       <c r="C109" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.7582831374806016</v>
       </c>
       <c r="D109" t="n">
+        <v>0.47087559020948</v>
+      </c>
+      <c r="E109" t="n">
         <v>0.1571441550205173</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
+        <v>0.5161290322580676</v>
+      </c>
+      <c r="G109" t="n">
         <v>0.1811023622047244</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.004018257098273942</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.5321018246348093</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.9767310302830582</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.438551963665509</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.7651515151515151</v>
       </c>
     </row>
     <row r="110">
@@ -2310,13 +4942,37 @@
         <v>0.03155011901999335</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0.7225052735892334</v>
       </c>
       <c r="D110" t="n">
+        <v>0.939754685692952</v>
+      </c>
+      <c r="E110" t="n">
         <v>0.2336628207568952</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
+        <v>0.4838709677419359</v>
+      </c>
+      <c r="G110" t="n">
         <v>0.1574803149606299</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.01430171248053096</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.007197460017574998</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.4943928131909315</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.9747526090468045</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.1444028853860539</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.05606060606060603</v>
       </c>
     </row>
     <row r="111">
@@ -2327,13 +4983,37 @@
         <v>0.03175992582297135</v>
       </c>
       <c r="C111" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.7214733337099107</v>
       </c>
       <c r="D111" t="n">
+        <v>0.9550810334588318</v>
+      </c>
+      <c r="E111" t="n">
         <v>0.1968889727881753</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
+        <v>0.4516129032258078</v>
+      </c>
+      <c r="G111" t="n">
         <v>0.1417322834645669</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.01433446993927092</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.007448373161102297</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.5855552089591999</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.9726478689356843</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.2954849051562918</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.131060606060606</v>
       </c>
     </row>
     <row r="112">
@@ -2344,13 +5024,37 @@
         <v>0.03011004438322751</v>
       </c>
       <c r="C112" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.7204551687374622</v>
       </c>
       <c r="D112" t="n">
+        <v>0.838051473073846</v>
+      </c>
+      <c r="E112" t="n">
         <v>0.1616676977997149</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
+        <v>0.4516129032258078</v>
+      </c>
+      <c r="G112" t="n">
         <v>0.1338582677165355</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.0124837757434982</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.005823578377906619</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.6801679785195373</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.9834387148438586</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.5670585092172055</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.4867424242424242</v>
       </c>
     </row>
     <row r="113">
@@ -2361,13 +5065,37 @@
         <v>0.02733346395037888</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.586211824481038</v>
       </c>
       <c r="D113" t="n">
+        <v>0.5745101239707491</v>
+      </c>
+      <c r="E113" t="n">
         <v>0.2607593335030523</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
+        <v>0.4516129032258078</v>
+      </c>
+      <c r="G113" t="n">
         <v>0.1259842519685039</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.0126015428985489</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.006138936017701489</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.681290936005489</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.9809057856832755</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.5512957520705317</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.5443181818181818</v>
       </c>
     </row>
     <row r="114">
@@ -2378,13 +5106,37 @@
         <v>0.02745254095925249</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5857907071793789</v>
       </c>
       <c r="D114" t="n">
+        <v>0.5794999858153447</v>
+      </c>
+      <c r="E114" t="n">
         <v>0.1858998077277313</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
+        <v>0.4838709677419359</v>
+      </c>
+      <c r="G114" t="n">
         <v>0.1102362204724409</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.01250864397635656</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.006236678167905834</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.7097890436050871</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.979874732390936</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.3367619556505477</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.5075757575757576</v>
       </c>
     </row>
     <row r="115">
@@ -2395,13 +5147,37 @@
         <v>0.02713400996946776</v>
       </c>
       <c r="C115" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5853719450387301</v>
       </c>
       <c r="D115" t="n">
+        <v>0.5534358076392381</v>
+      </c>
+      <c r="E115" t="n">
         <v>0.2178537706115491</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
+        <v>0.4838709677419359</v>
+      </c>
+      <c r="G115" t="n">
         <v>0.09448818897637801</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.01197945683150728</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.005893882994729694</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.7918698206865462</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.9818776518647443</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.3812449906492119</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.5196969696969697</v>
       </c>
     </row>
     <row r="116">
@@ -2412,13 +5188,37 @@
         <v>0.02775501540122831</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5524243388598041</v>
       </c>
       <c r="D116" t="n">
+        <v>0.7319467675787755</v>
+      </c>
+      <c r="E116" t="n">
         <v>0.2091864466304862</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
+        <v>0.4838709677419359</v>
+      </c>
+      <c r="G116" t="n">
         <v>0.07874015748031499</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.01236215630638999</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.006446384082414946</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.5933676549433829</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.9777341744656977</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.7910766764627305</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.5984848484848485</v>
       </c>
     </row>
     <row r="117">
@@ -2429,13 +5229,37 @@
         <v>0.02810239121295804</v>
       </c>
       <c r="C117" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5524089936624156</v>
       </c>
       <c r="D117" t="n">
+        <v>0.753792364121497</v>
+      </c>
+      <c r="E117" t="n">
         <v>0.1259036300429093</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
+        <v>0.4516129032258078</v>
+      </c>
+      <c r="G117" t="n">
         <v>0.06299212598425197</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.01252785306694701</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.006776518135864103</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.5369842896455852</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.9751247411652975</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -2446,13 +5270,37 @@
         <v>0.02857029499533253</v>
       </c>
       <c r="C118" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5523936275963461</v>
       </c>
       <c r="D118" t="n">
+        <v>0.7842903418557905</v>
+      </c>
+      <c r="E118" t="n">
         <v>0.1475273773646412</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
+        <v>0.4516129032258078</v>
+      </c>
+      <c r="G118" t="n">
         <v>0.04724409448818895</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.01282374765411389</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.007228609738615652</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.5733056891296506</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.9716828912948247</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.4195832220144269</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.4295454545454545</v>
       </c>
     </row>
     <row r="119">
@@ -2463,13 +5311,37 @@
         <v>0.03082496359602787</v>
       </c>
       <c r="C119" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5926073932496794</v>
       </c>
       <c r="D119" t="n">
+        <v>0.7305787831409839</v>
+      </c>
+      <c r="E119" t="n">
         <v>0.1017300038812421</v>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
+        <v>0.4516129032258078</v>
+      </c>
+      <c r="G119" t="n">
         <v>0.03937007874015752</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.01101363816740433</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.005588173161569209</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.7869501147721993</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.9826292188753706</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.1007575757575757</v>
       </c>
     </row>
     <row r="120">
@@ -2480,13 +5352,37 @@
         <v>0.03048373292694517</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.592549573109233</v>
       </c>
       <c r="D120" t="n">
+        <v>0.7089181518251684</v>
+      </c>
+      <c r="E120" t="n">
         <v>0.1863476499770948</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
+        <v>0.4193548387096762</v>
+      </c>
+      <c r="G120" t="n">
         <v>0.03149606299212598</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.01057768724668966</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.005302572230602109</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.7086646182002438</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.9842700119624287</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.4458990114881112</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.5431818181818182</v>
       </c>
     </row>
     <row r="121">
@@ -2497,13 +5393,37 @@
         <v>0.0308122633484096</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3310842674472362</v>
+        <v>0.5924919664430602</v>
       </c>
       <c r="D121" t="n">
+        <v>0.7348195609187762</v>
+      </c>
+      <c r="E121" t="n">
         <v>0.1234587698169114</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
+        <v>0.4193548387096762</v>
+      </c>
+      <c r="G121" t="n">
         <v>0.03149606299212598</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.01082732159004408</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.005690140807020941</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.6505070675988471</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.981289234280188</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.7173390328613412</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.6943181818181818</v>
       </c>
     </row>
     <row r="122">
@@ -2517,10 +5437,34 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
         <v>0.2600526618977168</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
+        <v>0.4193548387096762</v>
+      </c>
+      <c r="G122" t="n">
         <v>0.0236220472440945</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.002887575080349017</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.005613686574778806</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.6833060359507753</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.9807111507994541</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.7005076142131981</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.9787878787878788</v>
       </c>
     </row>
     <row r="123">
@@ -2534,10 +5478,34 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
         <v>0.1963659753574257</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
+        <v>0.4516129032258078</v>
+      </c>
+      <c r="G123" t="n">
         <v>0.01574803149606296</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.002477359683769713</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.005175945365139385</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.7548506731960245</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.9834275684871278</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.08642799893133851</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -2551,10 +5519,34 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
         <v>0.1145759783523166</v>
       </c>
-      <c r="E124" t="n">
-        <v>0</v>
+      <c r="F124" t="n">
+        <v>0.5161290322580676</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.0002772161070888133</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.002965947769794803</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.9618970566512602</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.9983337449731385</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.3115148276783329</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.3935606060606061</v>
       </c>
     </row>
     <row r="125">
@@ -2568,10 +5560,34 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
         <v>0.165432040914761</v>
       </c>
-      <c r="E125" t="n">
-        <v>0</v>
+      <c r="F125" t="n">
+        <v>0.612903225806452</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.004875186710974664</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.007489855568560793</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.5362716851339961</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.9669481793166751</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.4815655890996527</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.5265151515151515</v>
       </c>
     </row>
     <row r="126">
@@ -2585,10 +5601,34 @@
         <v>0</v>
       </c>
       <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
         <v>0.191356105359252</v>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
+        <v>0.6774193548387117</v>
+      </c>
+      <c r="G126" t="n">
         <v>0.007874015748031482</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.002365139798503027</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.004974080119056487</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.8373213481418396</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.983965977254543</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.5375367352391131</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.5265151515151515</v>
       </c>
     </row>
     <row r="127">
@@ -2602,10 +5642,34 @@
         <v>0</v>
       </c>
       <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
         <v>0.2572715443067511</v>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
+        <v>0.7096774193548399</v>
+      </c>
+      <c r="G127" t="n">
         <v>0.007874015748031482</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.002602392811369245</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.5822869356131446</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.5303030303030303</v>
       </c>
     </row>
     <row r="128">
@@ -2619,10 +5683,34 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
         <v>0.228223095977973</v>
       </c>
-      <c r="E128" t="n">
+      <c r="F128" t="n">
+        <v>0.6774193548387117</v>
+      </c>
+      <c r="G128" t="n">
         <v>0.007874015748031482</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.00664563076098532</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.009156131926113968</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.3707296219929684</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.9546659025765803</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.5451509484370826</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0.5401515151515152</v>
       </c>
     </row>
     <row r="129">
@@ -2636,10 +5724,34 @@
         <v>0</v>
       </c>
       <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
         <v>0.1627152249889774</v>
       </c>
-      <c r="E129" t="n">
+      <c r="F129" t="n">
+        <v>0.5806451612903238</v>
+      </c>
+      <c r="G129" t="n">
         <v>0.01574803149606296</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.00440806963871616</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.006911889738010425</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.4356150255383813</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.9698313082519218</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.448437082554101</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0.5181818181818182</v>
       </c>
     </row>
     <row r="130">
@@ -2653,10 +5765,34 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
         <v>0.1836229489935056</v>
       </c>
-      <c r="E130" t="n">
+      <c r="F130" t="n">
+        <v>0.4838709677419359</v>
+      </c>
+      <c r="G130" t="n">
         <v>0.01574803149606296</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.003929608189577876</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.006410499754394499</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.5617259035703712</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.9730170184310524</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.429067592839968</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0.5181818181818182</v>
       </c>
     </row>
     <row r="131">
@@ -2670,10 +5806,34 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
         <v>0.2128523162817381</v>
       </c>
-      <c r="E131" t="n">
-        <v>0</v>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.003713352178203274</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.006169323174544314</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.5863861258720136</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.9744176722955573</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.4925193694897141</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0.5295454545454545</v>
       </c>
     </row>
     <row r="132">
@@ -2687,10 +5847,34 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
         <v>0.1932737126589595</v>
       </c>
-      <c r="E132" t="n">
-        <v>0</v>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.005429694369964018</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.007842817370897646</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.4252858022654106</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.9626555518560601</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.5213732300293882</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0.5227272727272727</v>
       </c>
     </row>
     <row r="133">
@@ -2708,6 +5892,30 @@
       </c>
       <c r="E133" t="n">
         <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.005696447214030804</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.008081022263478847</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.9607671626147806</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.5372695698637457</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0.5431818181818182</v>
       </c>
     </row>
   </sheetData>
